--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_14_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_14_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1227336.736604146</v>
+        <v>1224803.483136639</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9961425.126706226</v>
+        <v>9961425.126706222</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673418</v>
+        <v>603248.4937673426</v>
       </c>
     </row>
     <row r="9">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>15.21022140383137</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,67 +1139,67 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>6.521117270783228</v>
       </c>
       <c r="F8" t="n">
-        <v>15.21022140383137</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>15.21022140383137</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>15.21022140383137</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>4.097100052852174</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>9.300062959642496</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,67 +1212,67 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>13.39716301249467</v>
       </c>
       <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
         <v>15.21022140383137</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="T9" t="n">
         <v>15.21022140383137</v>
       </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>13.39716301249467</v>
+        <v>15.21022140383137</v>
       </c>
       <c r="W9" t="n">
-        <v>15.21022140383137</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>15.21022140383137</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>15.21022140383137</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>15.21022140383137</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>15.21022140383137</v>
       </c>
       <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
         <v>13.39716301249466</v>
       </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>15.21022140383137</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1367,22 +1367,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>337.8868837519179</v>
+        <v>337.886883751918</v>
       </c>
       <c r="C11" t="n">
-        <v>320.4259338594449</v>
+        <v>320.425933859445</v>
       </c>
       <c r="D11" t="n">
-        <v>309.8360837091203</v>
+        <v>309.8360837091204</v>
       </c>
       <c r="E11" t="n">
-        <v>337.0834121606991</v>
+        <v>337.0834121606992</v>
       </c>
       <c r="F11" t="n">
-        <v>362.0290878301488</v>
+        <v>107.1781112415719</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>366.0740097548241</v>
       </c>
       <c r="H11" t="n">
         <v>249.7530437407106</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>64.32353124632984</v>
+        <v>64.32353124632989</v>
       </c>
       <c r="T11" t="n">
-        <v>159.0676941396728</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>137.8133604738935</v>
+        <v>206.148153408374</v>
       </c>
       <c r="V11" t="n">
         <v>282.9053005585723</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>304.3940108058504</v>
       </c>
       <c r="X11" t="n">
-        <v>324.8841427669064</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>341.3909807444909</v>
+        <v>341.390980744491</v>
       </c>
     </row>
     <row r="12">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>134.9850222703746</v>
+        <v>134.9850222703747</v>
       </c>
       <c r="C13" t="n">
         <v>122.3998631870652</v>
@@ -1534,7 +1534,7 @@
         <v>103.7685151066497</v>
       </c>
       <c r="E13" t="n">
-        <v>101.5870047350065</v>
+        <v>101.5870047350066</v>
       </c>
       <c r="F13" t="n">
         <v>100.5740901113686</v>
@@ -1543,10 +1543,10 @@
         <v>121.1785103405621</v>
       </c>
       <c r="H13" t="n">
-        <v>93.60409325779405</v>
+        <v>49.53418644607762</v>
       </c>
       <c r="I13" t="n">
-        <v>51.49523756339555</v>
+        <v>51.49523756339561</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>44.0699068117145</v>
       </c>
       <c r="S13" t="n">
-        <v>144.9161420268427</v>
+        <v>144.9161420268428</v>
       </c>
       <c r="T13" t="n">
-        <v>174.700538607837</v>
+        <v>174.7005386078371</v>
       </c>
       <c r="U13" t="n">
-        <v>241.3648617482191</v>
+        <v>241.3648617482192</v>
       </c>
       <c r="V13" t="n">
-        <v>207.2906854122653</v>
+        <v>207.2906854122654</v>
       </c>
       <c r="W13" t="n">
-        <v>241.6760404250283</v>
+        <v>241.6760404250284</v>
       </c>
       <c r="X13" t="n">
         <v>180.8626974774745</v>
       </c>
       <c r="Y13" t="n">
-        <v>173.7376954405321</v>
+        <v>173.7376954405322</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>337.886883751918</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>320.425933859445</v>
       </c>
       <c r="D14" t="n">
-        <v>309.8360837091203</v>
+        <v>309.8360837091204</v>
       </c>
       <c r="E14" t="n">
-        <v>337.0834121606991</v>
+        <v>337.0834121606992</v>
       </c>
       <c r="F14" t="n">
-        <v>362.0290878301488</v>
+        <v>362.0290878301489</v>
       </c>
       <c r="G14" t="n">
         <v>366.0740097548241</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7530437407106</v>
+        <v>21.49239445977814</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>64.32353124632984</v>
+        <v>64.32353124632989</v>
       </c>
       <c r="T14" t="n">
-        <v>159.0676941396728</v>
+        <v>159.0676941396729</v>
       </c>
       <c r="U14" t="n">
-        <v>125.6581575245821</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>282.9053005585723</v>
       </c>
       <c r="W14" t="n">
-        <v>304.3940108058504</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>324.8841427669064</v>
+        <v>324.8841427669065</v>
       </c>
       <c r="Y14" t="n">
-        <v>341.3909807444909</v>
+        <v>341.390980744491</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>134.9850222703746</v>
+        <v>134.9850222703747</v>
       </c>
       <c r="C16" t="n">
-        <v>122.3998631870652</v>
+        <v>72.02901560085405</v>
       </c>
       <c r="D16" t="n">
         <v>103.7685151066497</v>
       </c>
       <c r="E16" t="n">
-        <v>101.5870047350065</v>
+        <v>101.5870047350066</v>
       </c>
       <c r="F16" t="n">
-        <v>50.20324252515844</v>
+        <v>100.5740901113686</v>
       </c>
       <c r="G16" t="n">
         <v>121.1785103405621</v>
       </c>
       <c r="H16" t="n">
-        <v>99.9050340322888</v>
+        <v>99.90503403228885</v>
       </c>
       <c r="I16" t="n">
-        <v>51.49523756339555</v>
+        <v>51.49523756339561</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.06990681171445</v>
+        <v>44.0699068117145</v>
       </c>
       <c r="S16" t="n">
-        <v>144.9161420268427</v>
+        <v>144.9161420268428</v>
       </c>
       <c r="T16" t="n">
-        <v>174.700538607837</v>
+        <v>174.7005386078371</v>
       </c>
       <c r="U16" t="n">
-        <v>241.3648617482191</v>
+        <v>241.3648617482192</v>
       </c>
       <c r="V16" t="n">
-        <v>207.2906854122653</v>
+        <v>207.2906854122654</v>
       </c>
       <c r="W16" t="n">
-        <v>241.6760404250283</v>
+        <v>241.6760404250284</v>
       </c>
       <c r="X16" t="n">
         <v>180.8626974774745</v>
       </c>
       <c r="Y16" t="n">
-        <v>173.7376954405321</v>
+        <v>173.7376954405322</v>
       </c>
     </row>
     <row r="17">
@@ -1841,19 +1841,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>335.7740835276717</v>
+        <v>335.7740835276716</v>
       </c>
       <c r="C17" t="n">
         <v>318.3131336351986</v>
       </c>
       <c r="D17" t="n">
-        <v>83.32752664762086</v>
+        <v>307.723283484874</v>
       </c>
       <c r="E17" t="n">
-        <v>334.9706119364529</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>359.9162876059025</v>
+        <v>308.4346317293087</v>
       </c>
       <c r="G17" t="n">
         <v>363.9612095305778</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.21073102208358</v>
+        <v>62.21073102208356</v>
       </c>
       <c r="T17" t="n">
-        <v>156.9548939154266</v>
+        <v>156.9548939154265</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>204.0353531841277</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>280.792500334326</v>
       </c>
       <c r="W17" t="n">
         <v>302.2812105816041</v>
       </c>
       <c r="X17" t="n">
-        <v>322.7713425426601</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>339.2781805202446</v>
@@ -1938,10 +1938,10 @@
         <v>134.9990636068732</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59295857397493</v>
+        <v>89.59295857397494</v>
       </c>
       <c r="I18" t="n">
-        <v>18.80325536294549</v>
+        <v>18.80325536294552</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1177296503150558</v>
+        <v>0.1177296503150842</v>
       </c>
       <c r="S18" t="n">
         <v>128.1359745639747</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>132.8722220461284</v>
+        <v>132.8722220461283</v>
       </c>
       <c r="C19" t="n">
         <v>120.2870629628189</v>
@@ -2008,19 +2008,19 @@
         <v>101.6557148824034</v>
       </c>
       <c r="E19" t="n">
-        <v>99.47420451076025</v>
+        <v>99.47420451076022</v>
       </c>
       <c r="F19" t="n">
-        <v>98.46128988712232</v>
+        <v>98.46128988712229</v>
       </c>
       <c r="G19" t="n">
         <v>119.0657101163158</v>
       </c>
       <c r="H19" t="n">
-        <v>97.79223380804254</v>
+        <v>97.79223380804251</v>
       </c>
       <c r="I19" t="n">
-        <v>49.38243733914929</v>
+        <v>49.38243733914928</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.95710658746819</v>
+        <v>41.95710658746818</v>
       </c>
       <c r="S19" t="n">
         <v>142.8033418025965</v>
       </c>
       <c r="T19" t="n">
-        <v>172.5877383835908</v>
+        <v>172.5877383835907</v>
       </c>
       <c r="U19" t="n">
         <v>239.2520615239728</v>
       </c>
       <c r="V19" t="n">
-        <v>205.1778851880191</v>
+        <v>205.177885188019</v>
       </c>
       <c r="W19" t="n">
-        <v>239.5632402007821</v>
+        <v>239.563240200782</v>
       </c>
       <c r="X19" t="n">
         <v>178.7498972532282</v>
       </c>
       <c r="Y19" t="n">
-        <v>171.6248952162859</v>
+        <v>171.6248952162858</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>335.7740835276717</v>
+        <v>335.7740835276716</v>
       </c>
       <c r="C20" t="n">
         <v>318.3131336351986</v>
       </c>
       <c r="D20" t="n">
-        <v>307.7232834848741</v>
+        <v>307.723283484874</v>
       </c>
       <c r="E20" t="n">
-        <v>334.9706119364529</v>
+        <v>334.9706119364528</v>
       </c>
       <c r="F20" t="n">
-        <v>359.9162876059025</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>363.9612095305778</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>247.6402435164643</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>38.37475843259383</v>
+        <v>62.21073102208355</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2138,13 +2138,13 @@
         <v>204.0353531841277</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>280.792500334326</v>
       </c>
       <c r="W20" t="n">
         <v>302.2812105816041</v>
       </c>
       <c r="X20" t="n">
-        <v>322.7713425426601</v>
+        <v>130.418913708282</v>
       </c>
       <c r="Y20" t="n">
         <v>339.2781805202446</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>132.8722220461284</v>
+        <v>132.8722220461283</v>
       </c>
       <c r="C22" t="n">
         <v>120.2870629628189</v>
@@ -2245,19 +2245,19 @@
         <v>101.6557148824034</v>
       </c>
       <c r="E22" t="n">
-        <v>99.47420451076025</v>
+        <v>99.47420451076022</v>
       </c>
       <c r="F22" t="n">
-        <v>98.46128988712232</v>
+        <v>98.46128988712229</v>
       </c>
       <c r="G22" t="n">
         <v>119.0657101163158</v>
       </c>
       <c r="H22" t="n">
-        <v>97.79223380804254</v>
+        <v>97.79223380804251</v>
       </c>
       <c r="I22" t="n">
-        <v>49.38243733914929</v>
+        <v>49.38243733914926</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.95710658746819</v>
+        <v>41.95710658746816</v>
       </c>
       <c r="S22" t="n">
-        <v>142.8033418025965</v>
+        <v>142.8033418025964</v>
       </c>
       <c r="T22" t="n">
-        <v>172.5877383835908</v>
+        <v>172.5877383835907</v>
       </c>
       <c r="U22" t="n">
-        <v>239.2520615239729</v>
+        <v>239.2520615239728</v>
       </c>
       <c r="V22" t="n">
-        <v>205.1778851880191</v>
+        <v>205.177885188019</v>
       </c>
       <c r="W22" t="n">
-        <v>239.5632402007821</v>
+        <v>239.563240200782</v>
       </c>
       <c r="X22" t="n">
         <v>178.7498972532282</v>
       </c>
       <c r="Y22" t="n">
-        <v>171.6248952162859</v>
+        <v>171.6248952162858</v>
       </c>
     </row>
     <row r="23">
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>335.7740835276717</v>
+        <v>335.7740835276716</v>
       </c>
       <c r="C23" t="n">
         <v>318.3131336351986</v>
       </c>
       <c r="D23" t="n">
-        <v>307.7232834848741</v>
+        <v>307.723283484874</v>
       </c>
       <c r="E23" t="n">
-        <v>334.9706119364529</v>
+        <v>334.9706119364528</v>
       </c>
       <c r="F23" t="n">
         <v>359.9162876059025</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.21073102208358</v>
+        <v>62.21073102208355</v>
       </c>
       <c r="T23" t="n">
-        <v>156.9548939154266</v>
+        <v>156.9548939154265</v>
       </c>
       <c r="U23" t="n">
         <v>204.0353531841277</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>132.8722220461284</v>
+        <v>132.8722220461283</v>
       </c>
       <c r="C25" t="n">
         <v>120.2870629628189</v>
@@ -2482,19 +2482,19 @@
         <v>101.6557148824034</v>
       </c>
       <c r="E25" t="n">
-        <v>99.47420451076025</v>
+        <v>99.47420451076022</v>
       </c>
       <c r="F25" t="n">
-        <v>98.46128988712232</v>
+        <v>98.46128988712229</v>
       </c>
       <c r="G25" t="n">
         <v>119.0657101163158</v>
       </c>
       <c r="H25" t="n">
-        <v>97.79223380804254</v>
+        <v>97.79223380804251</v>
       </c>
       <c r="I25" t="n">
-        <v>49.38243733914929</v>
+        <v>49.38243733914926</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.95710658746819</v>
+        <v>41.95710658746816</v>
       </c>
       <c r="S25" t="n">
-        <v>142.8033418025965</v>
+        <v>142.8033418025964</v>
       </c>
       <c r="T25" t="n">
-        <v>172.5877383835908</v>
+        <v>172.5877383835907</v>
       </c>
       <c r="U25" t="n">
         <v>239.2520615239728</v>
       </c>
       <c r="V25" t="n">
-        <v>205.1778851880191</v>
+        <v>205.177885188019</v>
       </c>
       <c r="W25" t="n">
-        <v>239.5632402007821</v>
+        <v>239.563240200782</v>
       </c>
       <c r="X25" t="n">
         <v>178.7498972532282</v>
       </c>
       <c r="Y25" t="n">
-        <v>171.6248952162859</v>
+        <v>171.6248952162858</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>339.9903569008138</v>
+        <v>339.9903569008137</v>
       </c>
       <c r="C26" t="n">
         <v>322.5294070083407</v>
@@ -2561,7 +2561,7 @@
         <v>311.9395568580161</v>
       </c>
       <c r="E26" t="n">
-        <v>339.186885309595</v>
+        <v>339.1868853095949</v>
       </c>
       <c r="F26" t="n">
         <v>364.1325609790446</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>66.42700439522572</v>
+        <v>66.42700439522567</v>
       </c>
       <c r="T26" t="n">
         <v>161.1711672885687</v>
@@ -2615,7 +2615,7 @@
         <v>285.0087737074681</v>
       </c>
       <c r="W26" t="n">
-        <v>306.4974839547462</v>
+        <v>306.4974839547461</v>
       </c>
       <c r="X26" t="n">
         <v>326.9876159158022</v>
@@ -2716,10 +2716,10 @@
         <v>124.503336335961</v>
       </c>
       <c r="D28" t="n">
-        <v>105.8719882555456</v>
+        <v>105.8719882555455</v>
       </c>
       <c r="E28" t="n">
-        <v>103.6904778839024</v>
+        <v>103.6904778839023</v>
       </c>
       <c r="F28" t="n">
         <v>102.6775632602644</v>
@@ -2728,10 +2728,10 @@
         <v>123.2819834894579</v>
       </c>
       <c r="H28" t="n">
-        <v>1.489176946777848</v>
+        <v>1.489176946780233</v>
       </c>
       <c r="I28" t="n">
-        <v>53.59871071229142</v>
+        <v>53.59871071229138</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.1733799606103</v>
+        <v>46.17337996061028</v>
       </c>
       <c r="S28" t="n">
         <v>147.0196151757386</v>
       </c>
       <c r="T28" t="n">
-        <v>176.8040117567329</v>
+        <v>176.8040117567328</v>
       </c>
       <c r="U28" t="n">
-        <v>243.468334897115</v>
+        <v>243.4683348971149</v>
       </c>
       <c r="V28" t="n">
         <v>209.3941585611612</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>339.9903569008138</v>
+        <v>339.9903569008137</v>
       </c>
       <c r="C29" t="n">
         <v>322.5294070083407</v>
@@ -2798,7 +2798,7 @@
         <v>311.9395568580161</v>
       </c>
       <c r="E29" t="n">
-        <v>339.186885309595</v>
+        <v>339.1868853095949</v>
       </c>
       <c r="F29" t="n">
         <v>364.1325609790446</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>66.42700439522572</v>
+        <v>66.42700439522567</v>
       </c>
       <c r="T29" t="n">
         <v>161.1711672885687</v>
@@ -2852,7 +2852,7 @@
         <v>285.0087737074681</v>
       </c>
       <c r="W29" t="n">
-        <v>306.4974839547462</v>
+        <v>306.4974839547461</v>
       </c>
       <c r="X29" t="n">
         <v>326.9876159158022</v>
@@ -2953,10 +2953,10 @@
         <v>124.503336335961</v>
       </c>
       <c r="D31" t="n">
-        <v>5.352658021138907</v>
+        <v>105.8719882555455</v>
       </c>
       <c r="E31" t="n">
-        <v>103.6904778839024</v>
+        <v>103.6904778839023</v>
       </c>
       <c r="F31" t="n">
         <v>102.6775632602644</v>
@@ -2965,10 +2965,10 @@
         <v>123.2819834894579</v>
       </c>
       <c r="H31" t="n">
-        <v>102.0085071811847</v>
+        <v>1.489176946778973</v>
       </c>
       <c r="I31" t="n">
-        <v>53.59871071229142</v>
+        <v>53.59871071229138</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.1733799606103</v>
+        <v>46.17337996061028</v>
       </c>
       <c r="S31" t="n">
         <v>147.0196151757386</v>
       </c>
       <c r="T31" t="n">
-        <v>176.8040117567329</v>
+        <v>176.8040117567328</v>
       </c>
       <c r="U31" t="n">
-        <v>243.468334897115</v>
+        <v>243.4683348971149</v>
       </c>
       <c r="V31" t="n">
         <v>209.3941585611612</v>
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>335.7740835276717</v>
+        <v>335.7740835276716</v>
       </c>
       <c r="C35" t="n">
-        <v>318.3131336351987</v>
+        <v>318.3131336351986</v>
       </c>
       <c r="D35" t="n">
-        <v>307.7232834848741</v>
+        <v>307.723283484874</v>
       </c>
       <c r="E35" t="n">
-        <v>334.9706119364529</v>
+        <v>334.9706119364528</v>
       </c>
       <c r="F35" t="n">
         <v>359.9162876059025</v>
@@ -3281,7 +3281,7 @@
         <v>363.9612095305778</v>
       </c>
       <c r="H35" t="n">
-        <v>247.6402435164644</v>
+        <v>247.6402435164643</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.2107310220836</v>
+        <v>62.21073102208356</v>
       </c>
       <c r="T35" t="n">
         <v>156.9548939154266</v>
@@ -3332,7 +3332,7 @@
         <v>322.7713425426601</v>
       </c>
       <c r="Y35" t="n">
-        <v>339.2781805202447</v>
+        <v>339.2781805202446</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>132.8722220461284</v>
+        <v>132.8722220461283</v>
       </c>
       <c r="C37" t="n">
         <v>120.2870629628189</v>
       </c>
       <c r="D37" t="n">
-        <v>101.6557148824035</v>
+        <v>101.6557148824034</v>
       </c>
       <c r="E37" t="n">
-        <v>99.47420451076027</v>
+        <v>99.47420451076023</v>
       </c>
       <c r="F37" t="n">
-        <v>98.46128988712235</v>
+        <v>98.46128988712231</v>
       </c>
       <c r="G37" t="n">
         <v>119.0657101163158</v>
       </c>
       <c r="H37" t="n">
-        <v>97.79223380804257</v>
+        <v>97.79223380804252</v>
       </c>
       <c r="I37" t="n">
-        <v>49.38243733914931</v>
+        <v>49.38243733914928</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95710658746821</v>
+        <v>41.95710658746818</v>
       </c>
       <c r="S37" t="n">
-        <v>142.8033418025965</v>
+        <v>142.8033418025964</v>
       </c>
       <c r="T37" t="n">
         <v>172.5877383835908</v>
       </c>
       <c r="U37" t="n">
-        <v>239.2520615239729</v>
+        <v>239.2520615239728</v>
       </c>
       <c r="V37" t="n">
-        <v>205.1778851880191</v>
+        <v>205.177885188019</v>
       </c>
       <c r="W37" t="n">
-        <v>239.5632402007821</v>
+        <v>239.563240200782</v>
       </c>
       <c r="X37" t="n">
-        <v>178.7498972532283</v>
+        <v>178.7498972532282</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.6248952162859</v>
+        <v>171.6248952162858</v>
       </c>
     </row>
     <row r="38">
@@ -3500,16 +3500,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>335.7740835276717</v>
+        <v>335.7740835276716</v>
       </c>
       <c r="C38" t="n">
-        <v>318.3131336351987</v>
+        <v>318.3131336351986</v>
       </c>
       <c r="D38" t="n">
-        <v>307.7232834848741</v>
+        <v>307.723283484874</v>
       </c>
       <c r="E38" t="n">
-        <v>334.9706119364529</v>
+        <v>334.9706119364528</v>
       </c>
       <c r="F38" t="n">
         <v>359.9162876059025</v>
@@ -3518,7 +3518,7 @@
         <v>363.9612095305778</v>
       </c>
       <c r="H38" t="n">
-        <v>247.6402435164644</v>
+        <v>247.6402435164643</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21073102208359</v>
+        <v>62.21073102208358</v>
       </c>
       <c r="T38" t="n">
-        <v>156.9548939154266</v>
+        <v>156.9548939154265</v>
       </c>
       <c r="U38" t="n">
         <v>204.0353531841277</v>
@@ -3569,7 +3569,7 @@
         <v>322.7713425426601</v>
       </c>
       <c r="Y38" t="n">
-        <v>339.2781805202447</v>
+        <v>339.2781805202446</v>
       </c>
     </row>
     <row r="39">
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.8722220461284</v>
+        <v>132.8722220461283</v>
       </c>
       <c r="C40" t="n">
         <v>120.2870629628189</v>
@@ -3667,19 +3667,19 @@
         <v>101.6557148824034</v>
       </c>
       <c r="E40" t="n">
-        <v>99.47420451076026</v>
+        <v>99.47420451076023</v>
       </c>
       <c r="F40" t="n">
-        <v>98.46128988712233</v>
+        <v>98.46128988712231</v>
       </c>
       <c r="G40" t="n">
         <v>119.0657101163158</v>
       </c>
       <c r="H40" t="n">
-        <v>97.79223380804255</v>
+        <v>97.79223380804251</v>
       </c>
       <c r="I40" t="n">
-        <v>49.38243733914931</v>
+        <v>49.38243733914928</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.9571065874682</v>
+        <v>41.95710658746816</v>
       </c>
       <c r="S40" t="n">
-        <v>142.8033418025965</v>
+        <v>142.8033418025964</v>
       </c>
       <c r="T40" t="n">
-        <v>172.5877383835908</v>
+        <v>172.5877383835907</v>
       </c>
       <c r="U40" t="n">
-        <v>239.2520615239729</v>
+        <v>239.2520615239728</v>
       </c>
       <c r="V40" t="n">
-        <v>205.1778851880191</v>
+        <v>205.177885188019</v>
       </c>
       <c r="W40" t="n">
-        <v>239.5632402007821</v>
+        <v>239.563240200782</v>
       </c>
       <c r="X40" t="n">
-        <v>178.7498972532283</v>
+        <v>178.7498972532282</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.6248952162859</v>
+        <v>171.6248952162858</v>
       </c>
     </row>
     <row r="41">
@@ -3755,7 +3755,7 @@
         <v>363.9612095305778</v>
       </c>
       <c r="H41" t="n">
-        <v>247.6402435164643</v>
+        <v>247.6402435164644</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21073102208359</v>
+        <v>62.21073102208361</v>
       </c>
       <c r="T41" t="n">
         <v>156.9548939154266</v>
@@ -3901,22 +3901,22 @@
         <v>120.2870629628189</v>
       </c>
       <c r="D43" t="n">
-        <v>101.6557148824034</v>
+        <v>101.6557148824035</v>
       </c>
       <c r="E43" t="n">
-        <v>99.47420451076025</v>
+        <v>99.47420451076027</v>
       </c>
       <c r="F43" t="n">
-        <v>98.46128988712232</v>
+        <v>98.46128988712235</v>
       </c>
       <c r="G43" t="n">
         <v>119.0657101163158</v>
       </c>
       <c r="H43" t="n">
-        <v>97.79223380804254</v>
+        <v>97.79223380804257</v>
       </c>
       <c r="I43" t="n">
-        <v>49.38243733914929</v>
+        <v>49.38243733914932</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95710658746819</v>
+        <v>41.95710658746822</v>
       </c>
       <c r="S43" t="n">
         <v>142.8033418025965</v>
@@ -3952,7 +3952,7 @@
         <v>172.5877383835908</v>
       </c>
       <c r="U43" t="n">
-        <v>239.2520615239728</v>
+        <v>239.2520615239729</v>
       </c>
       <c r="V43" t="n">
         <v>205.1778851880191</v>
@@ -3961,7 +3961,7 @@
         <v>239.5632402007821</v>
       </c>
       <c r="X43" t="n">
-        <v>178.7498972532282</v>
+        <v>178.7498972532283</v>
       </c>
       <c r="Y43" t="n">
         <v>171.6248952162859</v>
@@ -3992,7 +3992,7 @@
         <v>363.9612095305778</v>
       </c>
       <c r="H44" t="n">
-        <v>247.6402435164643</v>
+        <v>247.6402435164644</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21073102208358</v>
+        <v>62.21073102208361</v>
       </c>
       <c r="T44" t="n">
         <v>156.9548939154266</v>
@@ -4138,22 +4138,22 @@
         <v>120.2870629628189</v>
       </c>
       <c r="D46" t="n">
-        <v>101.6557148824034</v>
+        <v>101.6557148824035</v>
       </c>
       <c r="E46" t="n">
-        <v>99.47420451076025</v>
+        <v>99.47420451076027</v>
       </c>
       <c r="F46" t="n">
-        <v>98.46128988712232</v>
+        <v>98.46128988712235</v>
       </c>
       <c r="G46" t="n">
         <v>119.0657101163158</v>
       </c>
       <c r="H46" t="n">
-        <v>97.79223380804254</v>
+        <v>97.79223380804257</v>
       </c>
       <c r="I46" t="n">
-        <v>49.38243733914929</v>
+        <v>49.38243733914932</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95710658746819</v>
+        <v>41.95710658746822</v>
       </c>
       <c r="S46" t="n">
         <v>142.8033418025965</v>
@@ -4198,7 +4198,7 @@
         <v>239.5632402007821</v>
       </c>
       <c r="X46" t="n">
-        <v>178.7498972532282</v>
+        <v>178.7498972532283</v>
       </c>
       <c r="Y46" t="n">
         <v>171.6248952162859</v>
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>51.44688262578762</v>
+        <v>30.11316560758534</v>
       </c>
       <c r="C8" t="n">
-        <v>51.44688262578762</v>
+        <v>30.11316560758534</v>
       </c>
       <c r="D8" t="n">
-        <v>51.44688262578762</v>
+        <v>30.11316560758534</v>
       </c>
       <c r="E8" t="n">
-        <v>51.44688262578762</v>
+        <v>23.52617846538006</v>
       </c>
       <c r="F8" t="n">
-        <v>36.08302262191755</v>
+        <v>16.58067771617659</v>
       </c>
       <c r="G8" t="n">
-        <v>20.71916261804747</v>
+        <v>1.21681771230651</v>
       </c>
       <c r="H8" t="n">
-        <v>5.355302614177393</v>
+        <v>1.21681771230651</v>
       </c>
       <c r="I8" t="n">
-        <v>5.355302614177393</v>
+        <v>1.21681771230651</v>
       </c>
       <c r="J8" t="n">
         <v>1.21681771230651</v>
       </c>
       <c r="K8" t="n">
-        <v>16.27493690209957</v>
+        <v>15.66652804594631</v>
       </c>
       <c r="L8" t="n">
-        <v>16.27493690209957</v>
+        <v>15.66652804594631</v>
       </c>
       <c r="M8" t="n">
-        <v>16.27493690209957</v>
+        <v>30.72464723573938</v>
       </c>
       <c r="N8" t="n">
         <v>30.72464723573938</v>
@@ -4835,19 +4835,19 @@
         <v>60.8408856153255</v>
       </c>
       <c r="U8" t="n">
-        <v>51.44688262578762</v>
+        <v>60.8408856153255</v>
       </c>
       <c r="V8" t="n">
-        <v>51.44688262578762</v>
+        <v>60.8408856153255</v>
       </c>
       <c r="W8" t="n">
-        <v>51.44688262578762</v>
+        <v>60.8408856153255</v>
       </c>
       <c r="X8" t="n">
-        <v>51.44688262578762</v>
+        <v>60.8408856153255</v>
       </c>
       <c r="Y8" t="n">
-        <v>51.44688262578762</v>
+        <v>45.47702561145542</v>
       </c>
     </row>
     <row r="9">
@@ -4857,16 +4857,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>31.94453772004666</v>
+        <v>14.74930560371526</v>
       </c>
       <c r="C9" t="n">
-        <v>31.94453772004666</v>
+        <v>1.21681771230651</v>
       </c>
       <c r="D9" t="n">
-        <v>16.58067771617659</v>
+        <v>1.21681771230651</v>
       </c>
       <c r="E9" t="n">
-        <v>16.58067771617659</v>
+        <v>1.21681771230651</v>
       </c>
       <c r="F9" t="n">
         <v>1.21681771230651</v>
@@ -4884,13 +4884,13 @@
         <v>1.21681771230651</v>
       </c>
       <c r="K9" t="n">
-        <v>1.21681771230651</v>
+        <v>15.66652804594631</v>
       </c>
       <c r="L9" t="n">
         <v>15.66652804594631</v>
       </c>
       <c r="M9" t="n">
-        <v>30.72464723573938</v>
+        <v>15.66652804594631</v>
       </c>
       <c r="N9" t="n">
         <v>30.72464723573938</v>
@@ -4908,25 +4908,25 @@
         <v>60.8408856153255</v>
       </c>
       <c r="S9" t="n">
-        <v>60.8408856153255</v>
+        <v>45.47702561145542</v>
       </c>
       <c r="T9" t="n">
-        <v>60.8408856153255</v>
+        <v>30.11316560758534</v>
       </c>
       <c r="U9" t="n">
-        <v>60.8408856153255</v>
+        <v>30.11316560758534</v>
       </c>
       <c r="V9" t="n">
-        <v>47.30839772391674</v>
+        <v>14.74930560371526</v>
       </c>
       <c r="W9" t="n">
-        <v>31.94453772004666</v>
+        <v>14.74930560371526</v>
       </c>
       <c r="X9" t="n">
-        <v>31.94453772004666</v>
+        <v>14.74930560371526</v>
       </c>
       <c r="Y9" t="n">
-        <v>31.94453772004666</v>
+        <v>14.74930560371526</v>
       </c>
     </row>
     <row r="10">
@@ -4942,22 +4942,22 @@
         <v>16.58067771617659</v>
       </c>
       <c r="D10" t="n">
-        <v>16.58067771617659</v>
+        <v>1.21681771230651</v>
       </c>
       <c r="E10" t="n">
-        <v>16.58067771617659</v>
+        <v>1.21681771230651</v>
       </c>
       <c r="F10" t="n">
-        <v>16.58067771617659</v>
+        <v>1.21681771230651</v>
       </c>
       <c r="G10" t="n">
-        <v>16.58067771617659</v>
+        <v>1.21681771230651</v>
       </c>
       <c r="H10" t="n">
-        <v>16.58067771617659</v>
+        <v>1.21681771230651</v>
       </c>
       <c r="I10" t="n">
-        <v>16.58067771617659</v>
+        <v>1.21681771230651</v>
       </c>
       <c r="J10" t="n">
         <v>1.21681771230651</v>
@@ -4966,13 +4966,13 @@
         <v>1.21681771230651</v>
       </c>
       <c r="L10" t="n">
-        <v>13.3917651469412</v>
+        <v>16.27493690209957</v>
       </c>
       <c r="M10" t="n">
-        <v>28.44988433673426</v>
+        <v>31.33305609189263</v>
       </c>
       <c r="N10" t="n">
-        <v>43.50800352652732</v>
+        <v>46.39117528168569</v>
       </c>
       <c r="O10" t="n">
         <v>58.56612271632038</v>
@@ -4981,16 +4981,16 @@
         <v>60.8408856153255</v>
       </c>
       <c r="Q10" t="n">
+        <v>60.8408856153255</v>
+      </c>
+      <c r="R10" t="n">
         <v>45.47702561145542</v>
       </c>
-      <c r="R10" t="n">
-        <v>30.11316560758534</v>
-      </c>
       <c r="S10" t="n">
-        <v>16.58067771617659</v>
+        <v>45.47702561145542</v>
       </c>
       <c r="T10" t="n">
-        <v>16.58067771617659</v>
+        <v>31.94453772004666</v>
       </c>
       <c r="U10" t="n">
         <v>16.58067771617659</v>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1661.608945757328</v>
+        <v>1773.955443905053</v>
       </c>
       <c r="C11" t="n">
-        <v>1337.946386303343</v>
+        <v>1450.292884451068</v>
       </c>
       <c r="D11" t="n">
-        <v>1024.98064518302</v>
+        <v>1137.327143330745</v>
       </c>
       <c r="E11" t="n">
-        <v>684.4923500712023</v>
+        <v>796.8388482189272</v>
       </c>
       <c r="F11" t="n">
-        <v>318.8064027680216</v>
+        <v>688.5781297930964</v>
       </c>
       <c r="G11" t="n">
-        <v>318.8064027680216</v>
+        <v>318.8064027680217</v>
       </c>
       <c r="H11" t="n">
         <v>66.53060100972804</v>
@@ -5045,16 +5045,16 @@
         <v>589.3882501407261</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.540883272729</v>
+        <v>1040.54088327273</v>
       </c>
       <c r="M11" t="n">
         <v>1574.204552882221</v>
       </c>
       <c r="N11" t="n">
-        <v>2121.117266973016</v>
+        <v>2121.117266973017</v>
       </c>
       <c r="O11" t="n">
-        <v>2624.21617302281</v>
+        <v>2624.216173022811</v>
       </c>
       <c r="P11" t="n">
         <v>3019.098448872793</v>
@@ -5069,22 +5069,22 @@
         <v>3261.556786601221</v>
       </c>
       <c r="T11" t="n">
-        <v>3100.882348076299</v>
+        <v>3261.556786601221</v>
       </c>
       <c r="U11" t="n">
-        <v>2961.676933456204</v>
+        <v>3053.326328612964</v>
       </c>
       <c r="V11" t="n">
-        <v>2675.91400359906</v>
+        <v>2767.56339875582</v>
       </c>
       <c r="W11" t="n">
-        <v>2675.91400359906</v>
+        <v>2460.094700972133</v>
       </c>
       <c r="X11" t="n">
-        <v>2347.748202824408</v>
+        <v>2460.094700972133</v>
       </c>
       <c r="Y11" t="n">
-        <v>2002.908828335023</v>
+        <v>2115.255326482748</v>
       </c>
     </row>
     <row r="12">
@@ -5121,22 +5121,22 @@
         <v>160.2458037522405</v>
       </c>
       <c r="K12" t="n">
-        <v>398.574836701996</v>
+        <v>397.9020949412205</v>
       </c>
       <c r="L12" t="n">
-        <v>765.3601742875395</v>
+        <v>764.687432526764</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.738231275418</v>
+        <v>1212.065489514642</v>
       </c>
       <c r="N12" t="n">
-        <v>1686.365699132557</v>
+        <v>1685.692957371782</v>
       </c>
       <c r="O12" t="n">
-        <v>2097.422506386625</v>
+        <v>2096.749764625849</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.998767373011</v>
+        <v>2407.326025612235</v>
       </c>
       <c r="Q12" t="n">
         <v>2565.018834796051</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>768.1541508095678</v>
+        <v>723.639093423996</v>
       </c>
       <c r="C13" t="n">
-        <v>644.5179253680878</v>
+        <v>600.0028679825159</v>
       </c>
       <c r="D13" t="n">
-        <v>539.701243442179</v>
+        <v>495.1861860566071</v>
       </c>
       <c r="E13" t="n">
-        <v>437.0881073462128</v>
+        <v>392.5730499606408</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4981173347294</v>
+        <v>290.9830599491571</v>
       </c>
       <c r="G13" t="n">
-        <v>213.095581637192</v>
+        <v>168.5805242516196</v>
       </c>
       <c r="H13" t="n">
-        <v>118.5459924879051</v>
+        <v>118.5459924879054</v>
       </c>
       <c r="I13" t="n">
         <v>66.53060100972804</v>
       </c>
       <c r="J13" t="n">
-        <v>156.0755198923075</v>
+        <v>156.0755198923073</v>
       </c>
       <c r="K13" t="n">
-        <v>404.5002987676718</v>
+        <v>404.5002987676715</v>
       </c>
       <c r="L13" t="n">
-        <v>765.5086298047139</v>
+        <v>765.5086298047136</v>
       </c>
       <c r="M13" t="n">
-        <v>1154.116928388043</v>
+        <v>1154.116928388044</v>
       </c>
       <c r="N13" t="n">
         <v>1539.975303452215</v>
@@ -5218,31 +5218,31 @@
         <v>2160.797668383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>2282.834639101056</v>
+        <v>2282.834639101055</v>
       </c>
       <c r="R13" t="n">
-        <v>2282.834639101056</v>
+        <v>2238.319581715485</v>
       </c>
       <c r="S13" t="n">
-        <v>2136.454697659801</v>
+        <v>2091.93964027423</v>
       </c>
       <c r="T13" t="n">
-        <v>1959.989507146834</v>
+        <v>1915.474449761263</v>
       </c>
       <c r="U13" t="n">
-        <v>1716.186616492068</v>
+        <v>1671.671559106496</v>
       </c>
       <c r="V13" t="n">
-        <v>1506.802085772608</v>
+        <v>1462.287028387036</v>
       </c>
       <c r="W13" t="n">
-        <v>1262.684873222074</v>
+        <v>1218.169815836502</v>
       </c>
       <c r="X13" t="n">
-        <v>1079.995279810484</v>
+        <v>1035.480222424912</v>
       </c>
       <c r="Y13" t="n">
-        <v>904.5026581533806</v>
+        <v>859.9876007678088</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1707.718113328418</v>
+        <v>1800.814360377422</v>
       </c>
       <c r="C14" t="n">
-        <v>1707.718113328418</v>
+        <v>1477.151800923437</v>
       </c>
       <c r="D14" t="n">
-        <v>1394.752372208094</v>
+        <v>1164.186059803113</v>
       </c>
       <c r="E14" t="n">
-        <v>1054.264077096277</v>
+        <v>823.6977646912958</v>
       </c>
       <c r="F14" t="n">
-        <v>688.5781297930963</v>
+        <v>458.0118173881151</v>
       </c>
       <c r="G14" t="n">
-        <v>318.8064027680216</v>
+        <v>88.24009036303929</v>
       </c>
       <c r="H14" t="n">
-        <v>66.53060100972804</v>
+        <v>66.53060100972803</v>
       </c>
       <c r="I14" t="n">
-        <v>66.53060100972804</v>
+        <v>66.53060100972803</v>
       </c>
       <c r="J14" t="n">
         <v>255.4734218415111</v>
       </c>
       <c r="K14" t="n">
-        <v>589.3882501407248</v>
+        <v>589.3882501407254</v>
       </c>
       <c r="L14" t="n">
         <v>1040.540883272728</v>
@@ -5288,10 +5288,10 @@
         <v>1574.20455288222</v>
       </c>
       <c r="N14" t="n">
-        <v>2121.117266973016</v>
+        <v>2121.117266973015</v>
       </c>
       <c r="O14" t="n">
-        <v>2624.21617302281</v>
+        <v>2624.216173022809</v>
       </c>
       <c r="P14" t="n">
         <v>3019.098448872792</v>
@@ -5303,25 +5303,25 @@
         <v>3326.530050486402</v>
       </c>
       <c r="S14" t="n">
-        <v>3261.556786601221</v>
+        <v>3261.55678660122</v>
       </c>
       <c r="T14" t="n">
-        <v>3100.882348076299</v>
+        <v>3100.882348076298</v>
       </c>
       <c r="U14" t="n">
-        <v>2973.954916233286</v>
+        <v>3100.882348076298</v>
       </c>
       <c r="V14" t="n">
-        <v>2688.191986376143</v>
+        <v>2815.119418219154</v>
       </c>
       <c r="W14" t="n">
-        <v>2380.723288592455</v>
+        <v>2815.119418219154</v>
       </c>
       <c r="X14" t="n">
-        <v>2052.557487817803</v>
+        <v>2486.953617444501</v>
       </c>
       <c r="Y14" t="n">
-        <v>1707.718113328418</v>
+        <v>2142.114242955116</v>
       </c>
     </row>
     <row r="15">
@@ -5349,25 +5349,25 @@
         <v>176.0217261985366</v>
       </c>
       <c r="H15" t="n">
-        <v>85.52378824502652</v>
+        <v>85.52378824502651</v>
       </c>
       <c r="I15" t="n">
-        <v>66.53060100972804</v>
+        <v>66.53060100972803</v>
       </c>
       <c r="J15" t="n">
         <v>160.2458037522405</v>
       </c>
       <c r="K15" t="n">
-        <v>397.9020949412205</v>
+        <v>398.5748367019959</v>
       </c>
       <c r="L15" t="n">
-        <v>764.687432526764</v>
+        <v>765.3601742875394</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.065489514642</v>
+        <v>1212.738231275418</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.692957371782</v>
+        <v>1686.365699132557</v>
       </c>
       <c r="O15" t="n">
         <v>2096.749764625849</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>723.639093423997</v>
+        <v>723.6390934239964</v>
       </c>
       <c r="C16" t="n">
-        <v>600.002867982517</v>
+        <v>650.8825120089923</v>
       </c>
       <c r="D16" t="n">
-        <v>495.1861860566082</v>
+        <v>546.0658300830834</v>
       </c>
       <c r="E16" t="n">
-        <v>392.573049960642</v>
+        <v>443.4526939871172</v>
       </c>
       <c r="F16" t="n">
-        <v>341.8627039756335</v>
+        <v>341.8627039756336</v>
       </c>
       <c r="G16" t="n">
-        <v>219.460168278096</v>
+        <v>219.4601682780961</v>
       </c>
       <c r="H16" t="n">
         <v>118.5459924879054</v>
       </c>
       <c r="I16" t="n">
-        <v>66.53060100972804</v>
+        <v>66.53060100972803</v>
       </c>
       <c r="J16" t="n">
         <v>156.0755198923075</v>
       </c>
       <c r="K16" t="n">
-        <v>404.5002987676718</v>
+        <v>404.5002987676717</v>
       </c>
       <c r="L16" t="n">
-        <v>765.5086298047139</v>
+        <v>765.5086298047138</v>
       </c>
       <c r="M16" t="n">
         <v>1154.116928388044</v>
@@ -5455,19 +5455,19 @@
         <v>2160.797668383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>2282.834639101056</v>
+        <v>2282.834639101055</v>
       </c>
       <c r="R16" t="n">
-        <v>2238.319581715486</v>
+        <v>2238.319581715485</v>
       </c>
       <c r="S16" t="n">
         <v>2091.93964027423</v>
       </c>
       <c r="T16" t="n">
-        <v>1915.474449761264</v>
+        <v>1915.474449761263</v>
       </c>
       <c r="U16" t="n">
-        <v>1671.671559106497</v>
+        <v>1671.671559106496</v>
       </c>
       <c r="V16" t="n">
         <v>1462.287028387037</v>
@@ -5476,10 +5476,10 @@
         <v>1218.169815836503</v>
       </c>
       <c r="X16" t="n">
-        <v>1035.480222424913</v>
+        <v>1035.480222424912</v>
       </c>
       <c r="Y16" t="n">
-        <v>859.9876007678098</v>
+        <v>859.9876007678092</v>
       </c>
     </row>
     <row r="17">
@@ -5489,46 +5489,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1791.913442294795</v>
+        <v>1628.219996864701</v>
       </c>
       <c r="C17" t="n">
-        <v>1470.385024481463</v>
+        <v>1306.691579051369</v>
       </c>
       <c r="D17" t="n">
-        <v>1386.215805645483</v>
+        <v>995.8599795716979</v>
       </c>
       <c r="E17" t="n">
-        <v>1047.861652174318</v>
+        <v>995.8599795716979</v>
       </c>
       <c r="F17" t="n">
-        <v>684.3098465117905</v>
+        <v>684.3098465117901</v>
       </c>
       <c r="G17" t="n">
-        <v>316.6722611273688</v>
+        <v>316.6722611273687</v>
       </c>
       <c r="H17" t="n">
-        <v>66.53060100972804</v>
+        <v>66.53060100972803</v>
       </c>
       <c r="I17" t="n">
-        <v>66.53060100972804</v>
+        <v>66.53060100972803</v>
       </c>
       <c r="J17" t="n">
-        <v>255.4734218415108</v>
+        <v>255.4734218415124</v>
       </c>
       <c r="K17" t="n">
-        <v>589.3882501407247</v>
+        <v>589.3882501407261</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.540883272728</v>
+        <v>1040.540883272729</v>
       </c>
       <c r="M17" t="n">
-        <v>1574.204552882219</v>
+        <v>1574.20455288222</v>
       </c>
       <c r="N17" t="n">
-        <v>2121.117266973014</v>
+        <v>2121.117266973016</v>
       </c>
       <c r="O17" t="n">
-        <v>2624.216173022809</v>
+        <v>2624.21617302281</v>
       </c>
       <c r="P17" t="n">
         <v>3019.098448872792</v>
@@ -5543,22 +5543,22 @@
         <v>3263.690928241873</v>
       </c>
       <c r="T17" t="n">
-        <v>3105.150631357604</v>
+        <v>3105.150631357603</v>
       </c>
       <c r="U17" t="n">
-        <v>3105.150631357604</v>
+        <v>2899.054315009999</v>
       </c>
       <c r="V17" t="n">
-        <v>3105.150631357604</v>
+        <v>2615.425526793509</v>
       </c>
       <c r="W17" t="n">
-        <v>2799.81607521457</v>
+        <v>2310.090970650474</v>
       </c>
       <c r="X17" t="n">
-        <v>2473.784416080569</v>
+        <v>2310.090970650474</v>
       </c>
       <c r="Y17" t="n">
-        <v>2131.079183231837</v>
+        <v>1967.385737801742</v>
       </c>
     </row>
     <row r="18">
@@ -5586,25 +5586,25 @@
         <v>176.0217261985366</v>
       </c>
       <c r="H18" t="n">
-        <v>85.52378824502652</v>
+        <v>85.52378824502654</v>
       </c>
       <c r="I18" t="n">
-        <v>66.53060100972804</v>
+        <v>66.53060100972803</v>
       </c>
       <c r="J18" t="n">
-        <v>159.5730619914651</v>
+        <v>160.2458037522404</v>
       </c>
       <c r="K18" t="n">
-        <v>397.9020949412205</v>
+        <v>398.5748367019958</v>
       </c>
       <c r="L18" t="n">
-        <v>764.687432526764</v>
+        <v>765.3601742875392</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.065489514642</v>
+        <v>1212.738231275417</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.692957371782</v>
+        <v>1686.365699132557</v>
       </c>
       <c r="O18" t="n">
         <v>2096.749764625849</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>759.5797459659024</v>
+        <v>759.5797459659025</v>
       </c>
       <c r="C19" t="n">
-        <v>638.0776621650751</v>
+        <v>638.0776621650753</v>
       </c>
       <c r="D19" t="n">
-        <v>535.3951218798192</v>
+        <v>535.3951218798193</v>
       </c>
       <c r="E19" t="n">
-        <v>434.9161274245058</v>
+        <v>434.9161274245059</v>
       </c>
       <c r="F19" t="n">
-        <v>335.4602790536752</v>
+        <v>335.4602790536753</v>
       </c>
       <c r="G19" t="n">
-        <v>215.1918849967905</v>
+        <v>215.1918849967904</v>
       </c>
       <c r="H19" t="n">
         <v>116.4118508472526</v>
       </c>
       <c r="I19" t="n">
-        <v>66.53060100972804</v>
+        <v>66.53060100972803</v>
       </c>
       <c r="J19" t="n">
-        <v>158.1671921143113</v>
+        <v>158.1671921143114</v>
       </c>
       <c r="K19" t="n">
-        <v>408.6836432116794</v>
+        <v>408.6836432116795</v>
       </c>
       <c r="L19" t="n">
-        <v>771.7836464707253</v>
+        <v>771.7836464707254</v>
       </c>
       <c r="M19" t="n">
         <v>1162.483617276059</v>
@@ -5686,7 +5686,7 @@
         <v>1550.433664562235</v>
       </c>
       <c r="O19" t="n">
-        <v>1896.301001883119</v>
+        <v>1896.30100188312</v>
       </c>
       <c r="P19" t="n">
         <v>2175.439373937827</v>
@@ -5701,10 +5701,10 @@
         <v>2112.941301331567</v>
       </c>
       <c r="T19" t="n">
-        <v>1938.610252459252</v>
+        <v>1938.610252459253</v>
       </c>
       <c r="U19" t="n">
-        <v>1696.941503445139</v>
+        <v>1696.941503445138</v>
       </c>
       <c r="V19" t="n">
         <v>1489.691114366331</v>
@@ -5716,7 +5716,7 @@
         <v>1067.152591685513</v>
       </c>
       <c r="Y19" t="n">
-        <v>893.7941116690623</v>
+        <v>893.7941116690624</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1768.434162820845</v>
+        <v>1655.024017275958</v>
       </c>
       <c r="C20" t="n">
-        <v>1446.905745007513</v>
+        <v>1333.495599462626</v>
       </c>
       <c r="D20" t="n">
-        <v>1136.074145527842</v>
+        <v>1022.663999982955</v>
       </c>
       <c r="E20" t="n">
-        <v>797.7199920566778</v>
+        <v>684.3098465117907</v>
       </c>
       <c r="F20" t="n">
-        <v>434.1681863941501</v>
+        <v>684.3098465117907</v>
       </c>
       <c r="G20" t="n">
-        <v>66.53060100972804</v>
+        <v>316.6722611273688</v>
       </c>
       <c r="H20" t="n">
-        <v>66.53060100972804</v>
+        <v>66.53060100972803</v>
       </c>
       <c r="I20" t="n">
-        <v>66.53060100972804</v>
+        <v>66.53060100972803</v>
       </c>
       <c r="J20" t="n">
         <v>255.4734218415111</v>
       </c>
       <c r="K20" t="n">
-        <v>589.3882501407248</v>
+        <v>589.3882501407254</v>
       </c>
       <c r="L20" t="n">
         <v>1040.540883272728</v>
@@ -5762,10 +5762,10 @@
         <v>1574.20455288222</v>
       </c>
       <c r="N20" t="n">
-        <v>2121.117266973016</v>
+        <v>2121.117266973015</v>
       </c>
       <c r="O20" t="n">
-        <v>2624.21617302281</v>
+        <v>2624.216173022809</v>
       </c>
       <c r="P20" t="n">
         <v>3019.098448872792</v>
@@ -5777,25 +5777,25 @@
         <v>3326.530050486402</v>
       </c>
       <c r="S20" t="n">
-        <v>3287.767668231257</v>
+        <v>3263.690928241872</v>
       </c>
       <c r="T20" t="n">
-        <v>3287.767668231257</v>
+        <v>3263.690928241872</v>
       </c>
       <c r="U20" t="n">
-        <v>3081.671351883653</v>
+        <v>3057.594611894269</v>
       </c>
       <c r="V20" t="n">
-        <v>3081.671351883653</v>
+        <v>2773.965823677778</v>
       </c>
       <c r="W20" t="n">
-        <v>2776.336795740619</v>
+        <v>2468.631267534744</v>
       </c>
       <c r="X20" t="n">
-        <v>2450.305136606619</v>
+        <v>2336.894991061732</v>
       </c>
       <c r="Y20" t="n">
-        <v>2107.599903757887</v>
+        <v>1994.189758213</v>
       </c>
     </row>
     <row r="21">
@@ -5823,28 +5823,28 @@
         <v>176.0217261985366</v>
       </c>
       <c r="H21" t="n">
-        <v>85.52378824502652</v>
+        <v>85.52378824502651</v>
       </c>
       <c r="I21" t="n">
-        <v>66.53060100972804</v>
+        <v>66.53060100972803</v>
       </c>
       <c r="J21" t="n">
-        <v>159.5730619914651</v>
+        <v>160.2458037522405</v>
       </c>
       <c r="K21" t="n">
-        <v>397.9020949412205</v>
+        <v>398.5748367019959</v>
       </c>
       <c r="L21" t="n">
-        <v>764.687432526764</v>
+        <v>765.3601742875394</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.065489514642</v>
+        <v>1212.738231275418</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.692957371782</v>
+        <v>1686.365699132557</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.749764625849</v>
+        <v>2097.422506386625</v>
       </c>
       <c r="P21" t="n">
         <v>2407.326025612235</v>
@@ -5884,46 +5884,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>759.5797459659027</v>
+        <v>759.5797459659022</v>
       </c>
       <c r="C22" t="n">
-        <v>638.0776621650755</v>
+        <v>638.077662165075</v>
       </c>
       <c r="D22" t="n">
-        <v>535.3951218798195</v>
+        <v>535.395121879819</v>
       </c>
       <c r="E22" t="n">
-        <v>434.9161274245062</v>
+        <v>434.9161274245057</v>
       </c>
       <c r="F22" t="n">
-        <v>335.4602790536755</v>
+        <v>335.4602790536751</v>
       </c>
       <c r="G22" t="n">
-        <v>215.1918849967906</v>
+        <v>215.1918849967904</v>
       </c>
       <c r="H22" t="n">
-        <v>116.4118508472527</v>
+        <v>116.4118508472525</v>
       </c>
       <c r="I22" t="n">
-        <v>66.53060100972804</v>
+        <v>66.53060100972803</v>
       </c>
       <c r="J22" t="n">
-        <v>158.1671921143112</v>
+        <v>158.1671921143113</v>
       </c>
       <c r="K22" t="n">
-        <v>408.6836432116793</v>
+        <v>408.6836432116794</v>
       </c>
       <c r="L22" t="n">
-        <v>771.7836464707252</v>
+        <v>771.7836464707254</v>
       </c>
       <c r="M22" t="n">
         <v>1162.483617276059</v>
       </c>
       <c r="N22" t="n">
-        <v>1550.433664562234</v>
+        <v>1550.433664562235</v>
       </c>
       <c r="O22" t="n">
-        <v>1896.30100188312</v>
+        <v>1896.301001883119</v>
       </c>
       <c r="P22" t="n">
         <v>2175.439373937827</v>
@@ -5935,25 +5935,25 @@
         <v>2257.187101132169</v>
       </c>
       <c r="S22" t="n">
-        <v>2112.941301331567</v>
+        <v>2112.941301331566</v>
       </c>
       <c r="T22" t="n">
-        <v>1938.610252459253</v>
+        <v>1938.610252459252</v>
       </c>
       <c r="U22" t="n">
-        <v>1696.941503445139</v>
+        <v>1696.941503445138</v>
       </c>
       <c r="V22" t="n">
-        <v>1489.691114366332</v>
+        <v>1489.691114366331</v>
       </c>
       <c r="W22" t="n">
-        <v>1247.708043456451</v>
+        <v>1247.70804345645</v>
       </c>
       <c r="X22" t="n">
         <v>1067.152591685513</v>
       </c>
       <c r="Y22" t="n">
-        <v>893.7941116690627</v>
+        <v>893.7941116690622</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2033.195975697828</v>
+        <v>2033.195975697829</v>
       </c>
       <c r="C23" t="n">
-        <v>1711.667557884496</v>
+        <v>1711.667557884497</v>
       </c>
       <c r="D23" t="n">
-        <v>1400.835958404825</v>
+        <v>1400.835958404826</v>
       </c>
       <c r="E23" t="n">
-        <v>1062.481804933661</v>
+        <v>1062.481804933662</v>
       </c>
       <c r="F23" t="n">
-        <v>698.9299992711331</v>
+        <v>698.929999271134</v>
       </c>
       <c r="G23" t="n">
-        <v>331.2924138867114</v>
+        <v>331.2924138867113</v>
       </c>
       <c r="H23" t="n">
         <v>81.1507537690706</v>
@@ -5993,31 +5993,31 @@
         <v>771.4140519204204</v>
       </c>
       <c r="L23" t="n">
-        <v>1222.566685052423</v>
+        <v>1242.775959396784</v>
       </c>
       <c r="M23" t="n">
-        <v>1756.230354661915</v>
+        <v>1776.439629006275</v>
       </c>
       <c r="N23" t="n">
-        <v>2303.14306875271</v>
+        <v>2323.352343097071</v>
       </c>
       <c r="O23" t="n">
-        <v>2806.241974802505</v>
+        <v>2826.451249146865</v>
       </c>
       <c r="P23" t="n">
-        <v>3519.704971742254</v>
+        <v>3539.914246086615</v>
       </c>
       <c r="Q23" t="n">
-        <v>3933.414228456445</v>
+        <v>3998.473484130697</v>
       </c>
       <c r="R23" t="n">
         <v>4057.53768845353</v>
       </c>
       <c r="S23" t="n">
-        <v>3994.698566209</v>
+        <v>3994.698566209001</v>
       </c>
       <c r="T23" t="n">
-        <v>3836.158269324731</v>
+        <v>3836.158269324732</v>
       </c>
       <c r="U23" t="n">
         <v>3630.061952977128</v>
@@ -6029,10 +6029,10 @@
         <v>3041.098608617603</v>
       </c>
       <c r="X23" t="n">
-        <v>2715.066949483602</v>
+        <v>2715.066949483603</v>
       </c>
       <c r="Y23" t="n">
-        <v>2372.36171663487</v>
+        <v>2372.361716634871</v>
       </c>
     </row>
     <row r="24">
@@ -6066,19 +6066,19 @@
         <v>81.1507537690706</v>
       </c>
       <c r="J24" t="n">
-        <v>174.1932147508076</v>
+        <v>174.8659565115831</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5222477005631</v>
+        <v>413.1949894613385</v>
       </c>
       <c r="L24" t="n">
-        <v>779.3075852861066</v>
+        <v>779.9803270468821</v>
       </c>
       <c r="M24" t="n">
-        <v>1226.685642273985</v>
+        <v>1227.35838403476</v>
       </c>
       <c r="N24" t="n">
-        <v>1700.313110131124</v>
+        <v>1700.9858518919</v>
       </c>
       <c r="O24" t="n">
         <v>2111.369917385192</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>774.1998987252449</v>
+        <v>774.1998987252448</v>
       </c>
       <c r="C25" t="n">
-        <v>652.6978149244177</v>
+        <v>652.6978149244176</v>
       </c>
       <c r="D25" t="n">
-        <v>550.0152746391617</v>
+        <v>550.0152746391616</v>
       </c>
       <c r="E25" t="n">
-        <v>449.5362801838484</v>
+        <v>449.5362801838482</v>
       </c>
       <c r="F25" t="n">
-        <v>350.0804318130178</v>
+        <v>350.0804318130176</v>
       </c>
       <c r="G25" t="n">
-        <v>229.8120377561331</v>
+        <v>229.812037756133</v>
       </c>
       <c r="H25" t="n">
         <v>131.0320036065951</v>
@@ -6148,31 +6148,31 @@
         <v>172.7873448736539</v>
       </c>
       <c r="K25" t="n">
-        <v>423.3037959710219</v>
+        <v>423.3037959710221</v>
       </c>
       <c r="L25" t="n">
-        <v>786.4037992300679</v>
+        <v>786.4037992300667</v>
       </c>
       <c r="M25" t="n">
-        <v>1177.103770035402</v>
+        <v>1177.1037700354</v>
       </c>
       <c r="N25" t="n">
-        <v>1565.053817321577</v>
+        <v>1565.053817321576</v>
       </c>
       <c r="O25" t="n">
-        <v>1910.921154642462</v>
+        <v>1910.921154642461</v>
       </c>
       <c r="P25" t="n">
-        <v>2190.05952669717</v>
+        <v>2190.059526697169</v>
       </c>
       <c r="Q25" t="n">
-        <v>2314.188169636429</v>
+        <v>2314.188169636428</v>
       </c>
       <c r="R25" t="n">
-        <v>2271.807253891512</v>
+        <v>2271.807253891511</v>
       </c>
       <c r="S25" t="n">
-        <v>2127.561454090909</v>
+        <v>2127.561454090908</v>
       </c>
       <c r="T25" t="n">
         <v>1953.230405218595</v>
@@ -6190,7 +6190,7 @@
         <v>1081.772744444855</v>
       </c>
       <c r="Y25" t="n">
-        <v>908.4142644284049</v>
+        <v>908.4142644284047</v>
       </c>
     </row>
     <row r="26">
@@ -6227,22 +6227,22 @@
         <v>271.3103923131602</v>
       </c>
       <c r="K26" t="n">
-        <v>852.4642118801073</v>
+        <v>605.225220612374</v>
       </c>
       <c r="L26" t="n">
-        <v>1303.61684501211</v>
+        <v>1056.377853744377</v>
       </c>
       <c r="M26" t="n">
-        <v>1837.280514621602</v>
+        <v>1590.041523353869</v>
       </c>
       <c r="N26" t="n">
-        <v>2384.193228712397</v>
+        <v>2217.392890015584</v>
       </c>
       <c r="O26" t="n">
-        <v>2887.292134762191</v>
+        <v>3097.483975515496</v>
       </c>
       <c r="P26" t="n">
-        <v>3600.755131701941</v>
+        <v>3810.946972455246</v>
       </c>
       <c r="Q26" t="n">
         <v>4059.314369746024</v>
@@ -6257,19 +6257,19 @@
         <v>3888.481430953912</v>
       </c>
       <c r="U26" t="n">
-        <v>3678.126252613237</v>
+        <v>3678.126252613236</v>
       </c>
       <c r="V26" t="n">
-        <v>3390.238602403673</v>
+        <v>3390.238602403672</v>
       </c>
       <c r="W26" t="n">
-        <v>3080.645184267566</v>
+        <v>3080.645184267565</v>
       </c>
       <c r="X26" t="n">
-        <v>2750.354663140493</v>
+        <v>2750.354663140492</v>
       </c>
       <c r="Y26" t="n">
-        <v>2403.390568298688</v>
+        <v>2403.390568298687</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6303,25 @@
         <v>82.36757148137713</v>
       </c>
       <c r="J27" t="n">
-        <v>175.4100324631139</v>
+        <v>176.0827742238896</v>
       </c>
       <c r="K27" t="n">
-        <v>413.7390654128693</v>
+        <v>414.411807173645</v>
       </c>
       <c r="L27" t="n">
-        <v>780.5244029984128</v>
+        <v>781.1971447591885</v>
       </c>
       <c r="M27" t="n">
-        <v>1227.902459986291</v>
+        <v>1228.575201747067</v>
       </c>
       <c r="N27" t="n">
-        <v>1701.52992784343</v>
+        <v>1702.202669604206</v>
       </c>
       <c r="O27" t="n">
-        <v>2112.586735097498</v>
+        <v>2113.259476858274</v>
       </c>
       <c r="P27" t="n">
-        <v>2423.162996083884</v>
+        <v>2423.83573784466</v>
       </c>
       <c r="Q27" t="n">
         <v>2580.855805267699</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>703.6940733846101</v>
+        <v>703.6940733846122</v>
       </c>
       <c r="C28" t="n">
-        <v>577.93312759071</v>
+        <v>577.9331275907123</v>
       </c>
       <c r="D28" t="n">
-        <v>470.9917253123811</v>
+        <v>470.9917253123834</v>
       </c>
       <c r="E28" t="n">
-        <v>366.2538688639949</v>
+        <v>366.2538688639972</v>
       </c>
       <c r="F28" t="n">
-        <v>262.5391585000914</v>
+        <v>262.5391585000938</v>
       </c>
       <c r="G28" t="n">
-        <v>138.0119024501339</v>
+        <v>138.0119024501363</v>
       </c>
       <c r="H28" t="n">
         <v>136.5076833119745</v>
@@ -6385,10 +6385,10 @@
         <v>169.8300519465497</v>
       </c>
       <c r="K28" t="n">
-        <v>416.172392404507</v>
+        <v>416.1723924045071</v>
       </c>
       <c r="L28" t="n">
-        <v>775.0982850241422</v>
+        <v>775.0982850241423</v>
       </c>
       <c r="M28" t="n">
         <v>1161.624145190065</v>
@@ -6397,7 +6397,7 @@
         <v>1545.40008183683</v>
       </c>
       <c r="O28" t="n">
-        <v>1887.093308518304</v>
+        <v>1887.093308518305</v>
       </c>
       <c r="P28" t="n">
         <v>2162.057569933602</v>
@@ -6421,13 +6421,13 @@
         <v>1450.840889757331</v>
       </c>
       <c r="W28" t="n">
-        <v>1204.598956854377</v>
+        <v>1204.598956854378</v>
       </c>
       <c r="X28" t="n">
-        <v>1019.784643090366</v>
+        <v>1019.784643090368</v>
       </c>
       <c r="Y28" t="n">
-        <v>842.1673010808429</v>
+        <v>842.167301080845</v>
       </c>
     </row>
     <row r="29">
@@ -6446,10 +6446,10 @@
         <v>1419.088224089424</v>
       </c>
       <c r="E29" t="n">
-        <v>1076.475208625186</v>
+        <v>1076.475208625187</v>
       </c>
       <c r="F29" t="n">
-        <v>708.6645409695857</v>
+        <v>708.6645409695861</v>
       </c>
       <c r="G29" t="n">
         <v>336.7680935920907</v>
@@ -6467,19 +6467,19 @@
         <v>926.1291790578269</v>
       </c>
       <c r="L29" t="n">
-        <v>1377.28181218983</v>
+        <v>1790.766414594776</v>
       </c>
       <c r="M29" t="n">
-        <v>1910.945481799322</v>
+        <v>2324.430084204268</v>
       </c>
       <c r="N29" t="n">
-        <v>2457.858195890117</v>
+        <v>2871.342798295063</v>
       </c>
       <c r="O29" t="n">
-        <v>2960.957101939911</v>
+        <v>3374.441704344857</v>
       </c>
       <c r="P29" t="n">
-        <v>3674.420098879661</v>
+        <v>3810.946972455246</v>
       </c>
       <c r="Q29" t="n">
         <v>4059.314369746024</v>
@@ -6488,25 +6488,25 @@
         <v>4118.378574068856</v>
       </c>
       <c r="S29" t="n">
-        <v>4051.280589831254</v>
+        <v>4051.280589831255</v>
       </c>
       <c r="T29" t="n">
-        <v>3888.481430953912</v>
+        <v>3888.481430953913</v>
       </c>
       <c r="U29" t="n">
-        <v>3678.126252613237</v>
+        <v>3678.126252613236</v>
       </c>
       <c r="V29" t="n">
-        <v>3390.238602403673</v>
+        <v>3390.238602403672</v>
       </c>
       <c r="W29" t="n">
-        <v>3080.645184267566</v>
+        <v>3080.645184267565</v>
       </c>
       <c r="X29" t="n">
-        <v>2750.354663140493</v>
+        <v>2750.354663140492</v>
       </c>
       <c r="Y29" t="n">
-        <v>2403.390568298688</v>
+        <v>2403.390568298687</v>
       </c>
     </row>
     <row r="30">
@@ -6540,7 +6540,7 @@
         <v>82.36757148137713</v>
       </c>
       <c r="J30" t="n">
-        <v>175.4100324631139</v>
+        <v>176.0827742238896</v>
       </c>
       <c r="K30" t="n">
         <v>413.7390654128693</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>703.6940733846102</v>
+        <v>703.694073384611</v>
       </c>
       <c r="C31" t="n">
-        <v>577.9331275907101</v>
+        <v>577.933127590711</v>
       </c>
       <c r="D31" t="n">
-        <v>572.5264023168324</v>
+        <v>470.9917253123822</v>
       </c>
       <c r="E31" t="n">
-        <v>467.7885458684462</v>
+        <v>366.253868863996</v>
       </c>
       <c r="F31" t="n">
-        <v>364.0738355045428</v>
+        <v>262.5391585000925</v>
       </c>
       <c r="G31" t="n">
-        <v>239.5465794545852</v>
+        <v>138.011902450135</v>
       </c>
       <c r="H31" t="n">
         <v>136.5076833119745</v>
@@ -6619,13 +6619,13 @@
         <v>82.36757148137713</v>
       </c>
       <c r="J31" t="n">
-        <v>169.8300519465496</v>
+        <v>169.8300519465497</v>
       </c>
       <c r="K31" t="n">
         <v>416.172392404507</v>
       </c>
       <c r="L31" t="n">
-        <v>775.0982850241422</v>
+        <v>775.0982850241423</v>
       </c>
       <c r="M31" t="n">
         <v>1161.624145190065</v>
@@ -6637,7 +6637,7 @@
         <v>1887.093308518304</v>
       </c>
       <c r="P31" t="n">
-        <v>2162.057569933601</v>
+        <v>2162.057569933602</v>
       </c>
       <c r="Q31" t="n">
         <v>2282.01210223345</v>
@@ -6652,19 +6652,19 @@
         <v>1908.277751836397</v>
       </c>
       <c r="U31" t="n">
-        <v>1662.35014082921</v>
+        <v>1662.350140829211</v>
       </c>
       <c r="V31" t="n">
-        <v>1450.84088975733</v>
+        <v>1450.840889757331</v>
       </c>
       <c r="W31" t="n">
         <v>1204.598956854377</v>
       </c>
       <c r="X31" t="n">
-        <v>1019.784643090366</v>
+        <v>1019.784643090367</v>
       </c>
       <c r="Y31" t="n">
-        <v>842.167301080843</v>
+        <v>842.1673010808438</v>
       </c>
     </row>
     <row r="32">
@@ -6686,16 +6686,16 @@
         <v>1062.481804933662</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9299992711341</v>
+        <v>698.929999271134</v>
       </c>
       <c r="G32" t="n">
         <v>331.2924138867114</v>
       </c>
       <c r="H32" t="n">
-        <v>81.15075376907063</v>
+        <v>81.15075376907062</v>
       </c>
       <c r="I32" t="n">
-        <v>81.15075376907063</v>
+        <v>81.15075376907062</v>
       </c>
       <c r="J32" t="n">
         <v>270.0935746008537</v>
@@ -6710,7 +6710,7 @@
         <v>2033.843103799466</v>
       </c>
       <c r="N32" t="n">
-        <v>2852.124904940145</v>
+        <v>2852.124904940144</v>
       </c>
       <c r="O32" t="n">
         <v>3355.223810989939</v>
@@ -6719,7 +6719,7 @@
         <v>3750.106086839921</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.473484130699</v>
+        <v>3998.473484130698</v>
       </c>
       <c r="R32" t="n">
         <v>4057.537688453531</v>
@@ -6768,34 +6768,34 @@
         <v>327.0045694698723</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6418789578792</v>
+        <v>190.6418789578791</v>
       </c>
       <c r="H33" t="n">
         <v>100.1439410043691</v>
       </c>
       <c r="I33" t="n">
-        <v>81.15075376907063</v>
+        <v>81.15075376907062</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8659565115831</v>
+        <v>174.1932147508076</v>
       </c>
       <c r="K33" t="n">
-        <v>413.1949894613385</v>
+        <v>412.5222477005631</v>
       </c>
       <c r="L33" t="n">
-        <v>779.9803270468821</v>
+        <v>779.3075852861066</v>
       </c>
       <c r="M33" t="n">
-        <v>1227.35838403476</v>
+        <v>1226.685642273985</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.9858518919</v>
+        <v>1700.313110131124</v>
       </c>
       <c r="O33" t="n">
-        <v>2112.042659145967</v>
+        <v>2111.369917385192</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.618920132353</v>
+        <v>2421.946178371578</v>
       </c>
       <c r="Q33" t="n">
         <v>2579.638987555393</v>
@@ -6841,37 +6841,37 @@
         <v>550.0152746391615</v>
       </c>
       <c r="E34" t="n">
-        <v>449.536280183848</v>
+        <v>449.5362801838481</v>
       </c>
       <c r="F34" t="n">
         <v>350.0804318130174</v>
       </c>
       <c r="G34" t="n">
-        <v>229.8120377561327</v>
+        <v>229.8120377561328</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0320036065946</v>
+        <v>131.0320036065948</v>
       </c>
       <c r="I34" t="n">
-        <v>81.15075376907063</v>
+        <v>81.15075376907062</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7873448736539</v>
+        <v>172.7873448736532</v>
       </c>
       <c r="K34" t="n">
-        <v>423.303795971022</v>
+        <v>423.3037959710214</v>
       </c>
       <c r="L34" t="n">
-        <v>786.4037992300679</v>
+        <v>786.4037992300673</v>
       </c>
       <c r="M34" t="n">
-        <v>1177.103770035402</v>
+        <v>1177.103770035401</v>
       </c>
       <c r="N34" t="n">
-        <v>1565.053817321577</v>
+        <v>1565.053817321576</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.921154642462</v>
+        <v>1910.921154642461</v>
       </c>
       <c r="P34" t="n">
         <v>2190.05952669717</v>
@@ -6880,7 +6880,7 @@
         <v>2314.188169636428</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.807253891511</v>
+        <v>2271.807253891512</v>
       </c>
       <c r="S34" t="n">
         <v>2127.561454090909</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2033.195975697829</v>
+        <v>2033.195975697828</v>
       </c>
       <c r="C35" t="n">
-        <v>1711.667557884497</v>
+        <v>1711.667557884496</v>
       </c>
       <c r="D35" t="n">
-        <v>1400.835958404827</v>
+        <v>1400.835958404825</v>
       </c>
       <c r="E35" t="n">
-        <v>1062.481804933662</v>
+        <v>1062.48180493366</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9299992711342</v>
+        <v>698.9299992711327</v>
       </c>
       <c r="G35" t="n">
-        <v>331.2924138867114</v>
+        <v>331.2924138867113</v>
       </c>
       <c r="H35" t="n">
-        <v>81.15075376907063</v>
+        <v>81.15075376907058</v>
       </c>
       <c r="I35" t="n">
-        <v>81.15075376907063</v>
+        <v>81.15075376907058</v>
       </c>
       <c r="J35" t="n">
-        <v>437.4992236212067</v>
+        <v>270.0935746008536</v>
       </c>
       <c r="K35" t="n">
-        <v>771.4140519204204</v>
+        <v>604.0084029000674</v>
       </c>
       <c r="L35" t="n">
-        <v>1222.566685052423</v>
+        <v>1055.16103603207</v>
       </c>
       <c r="M35" t="n">
-        <v>1756.230354661915</v>
+        <v>1588.824705641562</v>
       </c>
       <c r="N35" t="n">
-        <v>2303.14306875271</v>
+        <v>2135.737419732357</v>
       </c>
       <c r="O35" t="n">
-        <v>2806.241974802505</v>
+        <v>3015.828505232269</v>
       </c>
       <c r="P35" t="n">
-        <v>3519.704971742254</v>
+        <v>3729.291502172019</v>
       </c>
       <c r="Q35" t="n">
-        <v>3978.264209786337</v>
+        <v>3998.473484130696</v>
       </c>
       <c r="R35" t="n">
-        <v>4057.537688453532</v>
+        <v>4057.537688453529</v>
       </c>
       <c r="S35" t="n">
-        <v>3994.698566209003</v>
+        <v>3994.698566209</v>
       </c>
       <c r="T35" t="n">
-        <v>3836.158269324734</v>
+        <v>3836.158269324731</v>
       </c>
       <c r="U35" t="n">
-        <v>3630.061952977129</v>
+        <v>3630.061952977127</v>
       </c>
       <c r="V35" t="n">
-        <v>3346.433164760638</v>
+        <v>3346.433164760636</v>
       </c>
       <c r="W35" t="n">
-        <v>3041.098608617604</v>
+        <v>3041.098608617602</v>
       </c>
       <c r="X35" t="n">
-        <v>2715.066949483603</v>
+        <v>2715.066949483602</v>
       </c>
       <c r="Y35" t="n">
-        <v>2372.361716634871</v>
+        <v>2372.361716634869</v>
       </c>
     </row>
     <row r="36">
@@ -7005,13 +7005,13 @@
         <v>327.0045694698723</v>
       </c>
       <c r="G36" t="n">
-        <v>190.6418789578792</v>
+        <v>190.6418789578791</v>
       </c>
       <c r="H36" t="n">
         <v>100.1439410043691</v>
       </c>
       <c r="I36" t="n">
-        <v>81.15075376907063</v>
+        <v>81.15075376907058</v>
       </c>
       <c r="J36" t="n">
         <v>174.8659565115831</v>
@@ -7020,13 +7020,13 @@
         <v>413.1949894613385</v>
       </c>
       <c r="L36" t="n">
-        <v>779.9803270468821</v>
+        <v>779.9803270468819</v>
       </c>
       <c r="M36" t="n">
-        <v>1227.35838403476</v>
+        <v>1226.685642273985</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.9858518919</v>
+        <v>1700.313110131124</v>
       </c>
       <c r="O36" t="n">
         <v>2111.369917385192</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1998987252454</v>
+        <v>774.1998987252448</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6978149244181</v>
+        <v>652.6978149244176</v>
       </c>
       <c r="D37" t="n">
-        <v>550.0152746391622</v>
+        <v>550.0152746391616</v>
       </c>
       <c r="E37" t="n">
-        <v>449.5362801838487</v>
+        <v>449.5362801838482</v>
       </c>
       <c r="F37" t="n">
-        <v>350.080431813018</v>
+        <v>350.0804318130176</v>
       </c>
       <c r="G37" t="n">
-        <v>229.8120377561333</v>
+        <v>229.812037756133</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0320036065952</v>
+        <v>131.0320036065951</v>
       </c>
       <c r="I37" t="n">
-        <v>81.15075376907063</v>
+        <v>81.15075376907058</v>
       </c>
       <c r="J37" t="n">
-        <v>172.7873448736536</v>
+        <v>172.7873448736538</v>
       </c>
       <c r="K37" t="n">
-        <v>423.3037959710216</v>
+        <v>423.3037959710219</v>
       </c>
       <c r="L37" t="n">
         <v>786.4037992300675</v>
@@ -7114,10 +7114,10 @@
         <v>2190.05952669717</v>
       </c>
       <c r="Q37" t="n">
-        <v>2314.188169636428</v>
+        <v>2314.188169636429</v>
       </c>
       <c r="R37" t="n">
-        <v>2271.807253891511</v>
+        <v>2271.807253891512</v>
       </c>
       <c r="S37" t="n">
         <v>2127.561454090909</v>
@@ -7135,10 +7135,10 @@
         <v>1262.328196215793</v>
       </c>
       <c r="X37" t="n">
-        <v>1081.772744444856</v>
+        <v>1081.772744444855</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.4142644284054</v>
+        <v>908.4142644284047</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2033.195975697829</v>
+        <v>2033.195975697827</v>
       </c>
       <c r="C38" t="n">
-        <v>1711.667557884497</v>
+        <v>1711.667557884495</v>
       </c>
       <c r="D38" t="n">
-        <v>1400.835958404827</v>
+        <v>1400.835958404825</v>
       </c>
       <c r="E38" t="n">
-        <v>1062.481804933662</v>
+        <v>1062.48180493366</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9299992711342</v>
+        <v>698.9299992711323</v>
       </c>
       <c r="G38" t="n">
-        <v>331.2924138867114</v>
+        <v>331.2924138867113</v>
       </c>
       <c r="H38" t="n">
-        <v>81.15075376907063</v>
+        <v>81.15075376907058</v>
       </c>
       <c r="I38" t="n">
-        <v>81.15075376907063</v>
+        <v>81.15075376907058</v>
       </c>
       <c r="J38" t="n">
-        <v>270.0935746008537</v>
+        <v>270.0935746008536</v>
       </c>
       <c r="K38" t="n">
-        <v>604.0084029000675</v>
+        <v>924.9123613455204</v>
       </c>
       <c r="L38" t="n">
-        <v>1055.16103603207</v>
+        <v>1394.556341789738</v>
       </c>
       <c r="M38" t="n">
-        <v>1588.824705641562</v>
+        <v>1928.220011399229</v>
       </c>
       <c r="N38" t="n">
-        <v>2135.737419732357</v>
+        <v>2475.132725490025</v>
       </c>
       <c r="O38" t="n">
-        <v>2761.391993472614</v>
+        <v>3355.223810989937</v>
       </c>
       <c r="P38" t="n">
-        <v>3474.854990412363</v>
+        <v>3750.106086839919</v>
       </c>
       <c r="Q38" t="n">
-        <v>3933.414228456446</v>
+        <v>3998.473484130696</v>
       </c>
       <c r="R38" t="n">
-        <v>4057.537688453531</v>
+        <v>4057.537688453529</v>
       </c>
       <c r="S38" t="n">
-        <v>3994.698566209002</v>
+        <v>3994.698566209</v>
       </c>
       <c r="T38" t="n">
-        <v>3836.158269324732</v>
+        <v>3836.158269324731</v>
       </c>
       <c r="U38" t="n">
-        <v>3630.061952977129</v>
+        <v>3630.061952977127</v>
       </c>
       <c r="V38" t="n">
-        <v>3346.433164760638</v>
+        <v>3346.433164760636</v>
       </c>
       <c r="W38" t="n">
-        <v>3041.098608617604</v>
+        <v>3041.098608617602</v>
       </c>
       <c r="X38" t="n">
-        <v>2715.066949483603</v>
+        <v>2715.066949483602</v>
       </c>
       <c r="Y38" t="n">
-        <v>2372.361716634871</v>
+        <v>2372.361716634869</v>
       </c>
     </row>
     <row r="39">
@@ -7242,34 +7242,34 @@
         <v>327.0045694698723</v>
       </c>
       <c r="G39" t="n">
-        <v>190.6418789578792</v>
+        <v>190.6418789578791</v>
       </c>
       <c r="H39" t="n">
         <v>100.1439410043691</v>
       </c>
       <c r="I39" t="n">
-        <v>81.15075376907063</v>
+        <v>81.15075376907058</v>
       </c>
       <c r="J39" t="n">
         <v>174.8659565115831</v>
       </c>
       <c r="K39" t="n">
-        <v>413.1949894613385</v>
+        <v>412.5222477005631</v>
       </c>
       <c r="L39" t="n">
-        <v>779.9803270468821</v>
+        <v>779.3075852861066</v>
       </c>
       <c r="M39" t="n">
-        <v>1227.35838403476</v>
+        <v>1226.685642273985</v>
       </c>
       <c r="N39" t="n">
-        <v>1700.9858518919</v>
+        <v>1700.313110131124</v>
       </c>
       <c r="O39" t="n">
-        <v>2112.042659145967</v>
+        <v>2111.369917385192</v>
       </c>
       <c r="P39" t="n">
-        <v>2422.618920132353</v>
+        <v>2421.946178371578</v>
       </c>
       <c r="Q39" t="n">
         <v>2579.638987555393</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1998987252447</v>
+        <v>774.1998987252448</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6978149244175</v>
+        <v>652.6978149244176</v>
       </c>
       <c r="D40" t="n">
-        <v>550.0152746391615</v>
+        <v>550.0152746391616</v>
       </c>
       <c r="E40" t="n">
-        <v>449.5362801838481</v>
+        <v>449.5362801838482</v>
       </c>
       <c r="F40" t="n">
-        <v>350.0804318130174</v>
+        <v>350.0804318130176</v>
       </c>
       <c r="G40" t="n">
-        <v>229.8120377561327</v>
+        <v>229.812037756133</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0320036065948</v>
+        <v>131.0320036065951</v>
       </c>
       <c r="I40" t="n">
-        <v>81.15075376907063</v>
+        <v>81.15075376907058</v>
       </c>
       <c r="J40" t="n">
         <v>172.7873448736539</v>
@@ -7336,10 +7336,10 @@
         <v>423.3037959710219</v>
       </c>
       <c r="L40" t="n">
-        <v>786.4037992300676</v>
+        <v>786.4037992300679</v>
       </c>
       <c r="M40" t="n">
-        <v>1177.103770035401</v>
+        <v>1177.103770035402</v>
       </c>
       <c r="N40" t="n">
         <v>1565.053817321577</v>
@@ -7348,16 +7348,16 @@
         <v>1910.921154642462</v>
       </c>
       <c r="P40" t="n">
-        <v>2190.05952669717</v>
+        <v>2190.059526697169</v>
       </c>
       <c r="Q40" t="n">
-        <v>2314.188169636429</v>
+        <v>2314.188169636428</v>
       </c>
       <c r="R40" t="n">
-        <v>2271.807253891512</v>
+        <v>2271.807253891511</v>
       </c>
       <c r="S40" t="n">
-        <v>2127.561454090909</v>
+        <v>2127.561454090908</v>
       </c>
       <c r="T40" t="n">
         <v>1953.230405218595</v>
@@ -7397,52 +7397,52 @@
         <v>1062.481804933662</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9299992711337</v>
+        <v>698.9299992711341</v>
       </c>
       <c r="G41" t="n">
         <v>331.2924138867114</v>
       </c>
       <c r="H41" t="n">
-        <v>81.1507537690706</v>
+        <v>81.15075376907063</v>
       </c>
       <c r="I41" t="n">
-        <v>81.1507537690706</v>
+        <v>81.15075376907063</v>
       </c>
       <c r="J41" t="n">
-        <v>392.6492422913149</v>
+        <v>270.0935746008537</v>
       </c>
       <c r="K41" t="n">
-        <v>726.5640705905287</v>
+        <v>604.0084029000675</v>
       </c>
       <c r="L41" t="n">
-        <v>1177.716703722532</v>
+        <v>1055.16103603207</v>
       </c>
       <c r="M41" t="n">
-        <v>1711.380373332023</v>
+        <v>1711.380373332024</v>
       </c>
       <c r="N41" t="n">
-        <v>2258.293087422819</v>
+        <v>2258.29308742282</v>
       </c>
       <c r="O41" t="n">
-        <v>2761.391993472613</v>
+        <v>2761.391993472614</v>
       </c>
       <c r="P41" t="n">
-        <v>3474.854990412362</v>
+        <v>3474.854990412363</v>
       </c>
       <c r="Q41" t="n">
-        <v>3933.414228456445</v>
+        <v>3933.414228456446</v>
       </c>
       <c r="R41" t="n">
-        <v>4057.53768845353</v>
+        <v>4057.537688453531</v>
       </c>
       <c r="S41" t="n">
-        <v>3994.698566209001</v>
+        <v>3994.698566209002</v>
       </c>
       <c r="T41" t="n">
-        <v>3836.158269324732</v>
+        <v>3836.158269324733</v>
       </c>
       <c r="U41" t="n">
-        <v>3630.061952977128</v>
+        <v>3630.061952977129</v>
       </c>
       <c r="V41" t="n">
         <v>3346.433164760638</v>
@@ -7479,16 +7479,16 @@
         <v>327.0045694698723</v>
       </c>
       <c r="G42" t="n">
-        <v>190.6418789578791</v>
+        <v>190.6418789578792</v>
       </c>
       <c r="H42" t="n">
         <v>100.1439410043691</v>
       </c>
       <c r="I42" t="n">
-        <v>81.1507537690706</v>
+        <v>81.15075376907063</v>
       </c>
       <c r="J42" t="n">
-        <v>174.1932147508076</v>
+        <v>174.8659565115831</v>
       </c>
       <c r="K42" t="n">
         <v>412.5222477005631</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1998987252449</v>
+        <v>774.1998987252451</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6978149244177</v>
+        <v>652.6978149244179</v>
       </c>
       <c r="D43" t="n">
-        <v>550.0152746391617</v>
+        <v>550.0152746391619</v>
       </c>
       <c r="E43" t="n">
-        <v>449.5362801838484</v>
+        <v>449.5362801838485</v>
       </c>
       <c r="F43" t="n">
         <v>350.0804318130178</v>
       </c>
       <c r="G43" t="n">
-        <v>229.8120377561331</v>
+        <v>229.8120377561332</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0320036065951</v>
+        <v>131.0320036065952</v>
       </c>
       <c r="I43" t="n">
-        <v>81.1507537690706</v>
+        <v>81.15075376907063</v>
       </c>
       <c r="J43" t="n">
-        <v>172.7873448736539</v>
+        <v>172.7873448736538</v>
       </c>
       <c r="K43" t="n">
-        <v>423.3037959710219</v>
+        <v>423.3037959710218</v>
       </c>
       <c r="L43" t="n">
-        <v>786.4037992300679</v>
+        <v>786.4037992300678</v>
       </c>
       <c r="M43" t="n">
-        <v>1177.103770035402</v>
+        <v>1177.103770035401</v>
       </c>
       <c r="N43" t="n">
         <v>1565.053817321577</v>
@@ -7609,10 +7609,10 @@
         <v>1262.328196215793</v>
       </c>
       <c r="X43" t="n">
-        <v>1081.772744444855</v>
+        <v>1081.772744444856</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.4142644284049</v>
+        <v>908.4142644284052</v>
       </c>
     </row>
     <row r="44">
@@ -7631,10 +7631,10 @@
         <v>1400.835958404826</v>
       </c>
       <c r="E44" t="n">
-        <v>1062.481804933662</v>
+        <v>1062.481804933661</v>
       </c>
       <c r="F44" t="n">
-        <v>698.929999271134</v>
+        <v>698.9299992711335</v>
       </c>
       <c r="G44" t="n">
         <v>331.2924138867114</v>
@@ -7646,28 +7646,28 @@
         <v>81.1507537690706</v>
       </c>
       <c r="J44" t="n">
-        <v>437.4992236212067</v>
+        <v>270.0935746008537</v>
       </c>
       <c r="K44" t="n">
-        <v>771.4140519204204</v>
+        <v>604.0084029000675</v>
       </c>
       <c r="L44" t="n">
-        <v>1222.566685052423</v>
+        <v>1338.575066071993</v>
       </c>
       <c r="M44" t="n">
-        <v>1756.230354661915</v>
+        <v>1872.238735681484</v>
       </c>
       <c r="N44" t="n">
-        <v>2303.14306875271</v>
+        <v>2852.124904940144</v>
       </c>
       <c r="O44" t="n">
-        <v>2806.241974802505</v>
+        <v>3355.223810989938</v>
       </c>
       <c r="P44" t="n">
-        <v>3474.854990412362</v>
+        <v>3750.10608683992</v>
       </c>
       <c r="Q44" t="n">
-        <v>3933.414228456445</v>
+        <v>3998.473484130698</v>
       </c>
       <c r="R44" t="n">
         <v>4057.53768845353</v>
@@ -7679,19 +7679,19 @@
         <v>3836.158269324732</v>
       </c>
       <c r="U44" t="n">
-        <v>3630.061952977129</v>
+        <v>3630.061952977128</v>
       </c>
       <c r="V44" t="n">
-        <v>3346.433164760638</v>
+        <v>3346.433164760637</v>
       </c>
       <c r="W44" t="n">
-        <v>3041.098608617604</v>
+        <v>3041.098608617603</v>
       </c>
       <c r="X44" t="n">
-        <v>2715.066949483603</v>
+        <v>2715.066949483602</v>
       </c>
       <c r="Y44" t="n">
-        <v>2372.361716634871</v>
+        <v>2372.36171663487</v>
       </c>
     </row>
     <row r="45">
@@ -7734,16 +7734,16 @@
         <v>779.9803270468821</v>
       </c>
       <c r="M45" t="n">
-        <v>1227.35838403476</v>
+        <v>1226.685642273985</v>
       </c>
       <c r="N45" t="n">
-        <v>1700.9858518919</v>
+        <v>1700.313110131124</v>
       </c>
       <c r="O45" t="n">
-        <v>2112.042659145967</v>
+        <v>2111.369917385192</v>
       </c>
       <c r="P45" t="n">
-        <v>2422.618920132353</v>
+        <v>2421.946178371578</v>
       </c>
       <c r="Q45" t="n">
         <v>2579.638987555393</v>
@@ -7789,46 +7789,46 @@
         <v>550.0152746391617</v>
       </c>
       <c r="E46" t="n">
-        <v>449.5362801838484</v>
+        <v>449.5362801838482</v>
       </c>
       <c r="F46" t="n">
-        <v>350.0804318130178</v>
+        <v>350.0804318130176</v>
       </c>
       <c r="G46" t="n">
-        <v>229.8120377561331</v>
+        <v>229.8120377561329</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0320036065951</v>
+        <v>131.0320036065952</v>
       </c>
       <c r="I46" t="n">
         <v>81.1507537690706</v>
       </c>
       <c r="J46" t="n">
-        <v>172.7873448736538</v>
+        <v>172.7873448736539</v>
       </c>
       <c r="K46" t="n">
-        <v>423.3037959710216</v>
+        <v>423.3037959710218</v>
       </c>
       <c r="L46" t="n">
-        <v>786.4037992300675</v>
+        <v>786.4037992300678</v>
       </c>
       <c r="M46" t="n">
         <v>1177.103770035401</v>
       </c>
       <c r="N46" t="n">
-        <v>1565.053817321576</v>
+        <v>1565.053817321577</v>
       </c>
       <c r="O46" t="n">
-        <v>1910.921154642461</v>
+        <v>1910.921154642462</v>
       </c>
       <c r="P46" t="n">
         <v>2190.05952669717</v>
       </c>
       <c r="Q46" t="n">
-        <v>2314.188169636428</v>
+        <v>2314.188169636429</v>
       </c>
       <c r="R46" t="n">
-        <v>2271.807253891511</v>
+        <v>2271.807253891512</v>
       </c>
       <c r="S46" t="n">
         <v>2127.561454090909</v>
@@ -7846,10 +7846,10 @@
         <v>1262.328196215793</v>
       </c>
       <c r="X46" t="n">
-        <v>1081.772744444856</v>
+        <v>1081.772744444855</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.4142644284049</v>
+        <v>908.414264428405</v>
       </c>
     </row>
   </sheetData>
@@ -8453,16 +8453,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>223.531676155567</v>
+        <v>222.9171217554122</v>
       </c>
       <c r="L8" t="n">
         <v>221.1666787354324</v>
       </c>
       <c r="M8" t="n">
-        <v>214.1012135983212</v>
+        <v>229.3114350021526</v>
       </c>
       <c r="N8" t="n">
-        <v>227.5008495700744</v>
+        <v>212.9051825663978</v>
       </c>
       <c r="O8" t="n">
         <v>229.7205088771009</v>
@@ -8532,16 +8532,16 @@
         <v>122.1609165114202</v>
       </c>
       <c r="K9" t="n">
-        <v>129.8481964236088</v>
+        <v>144.4438634272854</v>
       </c>
       <c r="L9" t="n">
-        <v>142.4021457466686</v>
+        <v>127.8064787429921</v>
       </c>
       <c r="M9" t="n">
-        <v>144.8019617615495</v>
+        <v>129.5917403577182</v>
       </c>
       <c r="N9" t="n">
-        <v>118.4674613291454</v>
+        <v>133.6776827329768</v>
       </c>
       <c r="O9" t="n">
         <v>146.0290415972356</v>
@@ -8614,7 +8614,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>141.0127528114181</v>
+        <v>143.9250475135983</v>
       </c>
       <c r="M10" t="n">
         <v>147.6307634224478</v>
@@ -8623,7 +8623,7 @@
         <v>136.5452040532166</v>
       </c>
       <c r="O10" t="n">
-        <v>147.8009881505234</v>
+        <v>144.8886934483432</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -8927,13 +8927,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9401,13 +9401,13 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9641,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>20.41340842864685</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9656,10 +9656,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>167.0119792155694</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>249.7363548158923</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9884,16 +9884,16 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>81.25116421305086</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10115,7 +10115,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10127,10 +10127,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>42.04342652566379</v>
       </c>
       <c r="Q29" t="n">
-        <v>137.9059329046318</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>274.1101889392761</v>
+        <v>274.1101889392756</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10598,16 +10598,16 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>21.02483299787886</v>
       </c>
       <c r="R35" t="n">
-        <v>20.41340842864858</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10823,10 +10823,10 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>18.67812859819634</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10835,16 +10835,16 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>123.7936037277394</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>123.7936037277386</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>123.7936037277394</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11294,31 +11294,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>286.2767980201234</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>276.4956967271472</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23267,10 +23267,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>254.850976588577</v>
       </c>
       <c r="G11" t="n">
-        <v>366.0740097548241</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23309,19 +23309,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>159.0676941396729</v>
       </c>
       <c r="U11" t="n">
-        <v>68.3347929344805</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>304.3940108058504</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>324.8841427669065</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>6.300940774494748</v>
+        <v>50.37084758621123</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.06990681171445</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>337.8868837519179</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>320.4259338594449</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>228.2606492809325</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,13 +23549,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>80.48999588379188</v>
+        <v>206.148153408374</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>304.3940108058504</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>50.37084758621118</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>50.37084758621014</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23735,13 +23735,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>224.3957568372532</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>334.9706119364528</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>51.4816558765938</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23786,16 +23786,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>204.0353531841277</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>280.792500334326</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>322.7713425426601</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23978,13 +23978,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>359.9162876059025</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>247.6402435164643</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24017,22 +24017,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>23.83597258948974</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>156.9548939154266</v>
+        <v>156.9548939154265</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>280.792500334326</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>192.3524288343781</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>100.5193302344068</v>
+        <v>100.5193302344044</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>100.5193302344067</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>100.5193302344057</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>864691.4017741728</v>
+        <v>864691.4017741726</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>868700.2323001379</v>
+        <v>868700.232300138</v>
       </c>
     </row>
     <row r="9">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>952371.36351445</v>
+        <v>952371.3635144499</v>
       </c>
     </row>
     <row r="15">
@@ -26314,46 +26314,46 @@
         <v>512047.711698149</v>
       </c>
       <c r="C2" t="n">
-        <v>512047.7116981489</v>
+        <v>512047.711698149</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651767</v>
       </c>
       <c r="E2" t="n">
         <v>475640.1034800002</v>
       </c>
       <c r="F2" t="n">
-        <v>475640.1034800001</v>
+        <v>475640.10348</v>
       </c>
       <c r="G2" t="n">
-        <v>477867.2315499803</v>
+        <v>477867.2315499806</v>
       </c>
       <c r="H2" t="n">
-        <v>477867.2315499808</v>
+        <v>477867.2315499805</v>
       </c>
       <c r="I2" t="n">
-        <v>513151.1061651767</v>
+        <v>513151.1061651768</v>
       </c>
       <c r="J2" t="n">
-        <v>511643.3162116613</v>
+        <v>511643.316211661</v>
       </c>
       <c r="K2" t="n">
         <v>511643.3162116613</v>
       </c>
       <c r="L2" t="n">
-        <v>513151.1061651768</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="M2" t="n">
-        <v>513151.1061651768</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="N2" t="n">
-        <v>513151.1061651766</v>
+        <v>513151.1061651767</v>
       </c>
       <c r="O2" t="n">
         <v>513151.1061651768</v>
       </c>
       <c r="P2" t="n">
-        <v>513151.1061651768</v>
+        <v>513151.106165177</v>
       </c>
     </row>
     <row r="3">
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1690.240179397011</v>
+        <v>1690.24017939708</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>48597.57052396417</v>
       </c>
       <c r="J3" t="n">
-        <v>36484.21079972052</v>
+        <v>36484.21079972051</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>5063.258877910693</v>
+        <v>5063.258877910726</v>
       </c>
       <c r="M3" t="n">
-        <v>203455.700660633</v>
+        <v>203455.7006606329</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>32504.54763073643</v>
+        <v>32504.5476307365</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>420147.7688895313</v>
       </c>
       <c r="D4" t="n">
-        <v>413700.5059104599</v>
+        <v>413700.5059104598</v>
       </c>
       <c r="E4" t="n">
-        <v>54330.58359326536</v>
+        <v>54330.58359326528</v>
       </c>
       <c r="F4" t="n">
-        <v>54330.58359326538</v>
+        <v>54330.58359326531</v>
       </c>
       <c r="G4" t="n">
-        <v>56369.67384732932</v>
+        <v>56369.6738473294</v>
       </c>
       <c r="H4" t="n">
-        <v>56369.67384732935</v>
+        <v>56369.67384732937</v>
       </c>
       <c r="I4" t="n">
         <v>76616.23142674626</v>
       </c>
       <c r="J4" t="n">
-        <v>74232.14920876386</v>
+        <v>74232.14920876388</v>
       </c>
       <c r="K4" t="n">
-        <v>74232.14920876385</v>
+        <v>74232.14920876388</v>
       </c>
       <c r="L4" t="n">
         <v>76616.23142674624</v>
       </c>
       <c r="M4" t="n">
-        <v>76616.23142674628</v>
+        <v>76616.23142674624</v>
       </c>
       <c r="N4" t="n">
-        <v>76616.23142674626</v>
+        <v>76616.23142674621</v>
       </c>
       <c r="O4" t="n">
         <v>76616.23142674626</v>
       </c>
       <c r="P4" t="n">
-        <v>76616.23142674624</v>
+        <v>76616.23142674622</v>
       </c>
     </row>
     <row r="5">
@@ -26482,7 +26482,7 @@
         <v>78094.73811936053</v>
       </c>
       <c r="G5" t="n">
-        <v>78272.35912141269</v>
+        <v>78272.35912141268</v>
       </c>
       <c r="H5" t="n">
         <v>78272.35912141269</v>
@@ -26497,16 +26497,16 @@
         <v>89953.99879365932</v>
       </c>
       <c r="L5" t="n">
+        <v>89383.67521851305</v>
+      </c>
+      <c r="M5" t="n">
+        <v>89383.67521851303</v>
+      </c>
+      <c r="N5" t="n">
+        <v>89383.67521851303</v>
+      </c>
+      <c r="O5" t="n">
         <v>89383.67521851306</v>
-      </c>
-      <c r="M5" t="n">
-        <v>89383.67521851306</v>
-      </c>
-      <c r="N5" t="n">
-        <v>89383.67521851306</v>
-      </c>
-      <c r="O5" t="n">
-        <v>89383.67521851305</v>
       </c>
       <c r="P5" t="n">
         <v>89383.67521851305</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>58272.34280861772</v>
+        <v>58267.92923074961</v>
       </c>
       <c r="C6" t="n">
-        <v>58272.34280861766</v>
+        <v>58267.92923074961</v>
       </c>
       <c r="D6" t="n">
-        <v>39962.79285579603</v>
+        <v>39962.79285579579</v>
       </c>
       <c r="E6" t="n">
-        <v>-793620.8503846287</v>
+        <v>-793770.8943953692</v>
       </c>
       <c r="F6" t="n">
-        <v>343214.7817673742</v>
+        <v>343064.7377566334</v>
       </c>
       <c r="G6" t="n">
-        <v>341534.9584018413</v>
+        <v>341393.8229033807</v>
       </c>
       <c r="H6" t="n">
-        <v>343225.1985812387</v>
+        <v>343084.0630827777</v>
       </c>
       <c r="I6" t="n">
-        <v>298553.6289959532</v>
+        <v>298553.6289959533</v>
       </c>
       <c r="J6" t="n">
-        <v>310972.9574095175</v>
+        <v>310966.9262497033</v>
       </c>
       <c r="K6" t="n">
-        <v>347457.1682092381</v>
+        <v>347451.1370494241</v>
       </c>
       <c r="L6" t="n">
         <v>342087.9406420069</v>
       </c>
       <c r="M6" t="n">
-        <v>143695.4988592844</v>
+        <v>143695.4988592848</v>
       </c>
       <c r="N6" t="n">
-        <v>347151.1995199173</v>
+        <v>347151.1995199175</v>
       </c>
       <c r="O6" t="n">
-        <v>314646.6518891811</v>
+        <v>314646.6518891809</v>
       </c>
       <c r="P6" t="n">
-        <v>347151.1995199175</v>
+        <v>347151.1995199177</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>44.84695791156266</v>
+        <v>44.8469579115626</v>
       </c>
       <c r="F2" t="n">
-        <v>44.84695791156266</v>
+        <v>44.8469579115626</v>
       </c>
       <c r="G2" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="H2" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="I2" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="J2" t="n">
-        <v>42.7434847626668</v>
+        <v>42.74348476266684</v>
       </c>
       <c r="K2" t="n">
-        <v>42.7434847626668</v>
+        <v>42.74348476266684</v>
       </c>
       <c r="L2" t="n">
         <v>46.9597581358089</v>
       </c>
       <c r="M2" t="n">
+        <v>46.95975813580894</v>
+      </c>
+      <c r="N2" t="n">
+        <v>46.95975813580894</v>
+      </c>
+      <c r="O2" t="n">
         <v>46.9597581358089</v>
       </c>
-      <c r="N2" t="n">
-        <v>46.95975813580891</v>
-      </c>
-      <c r="O2" t="n">
-        <v>46.95975813580892</v>
-      </c>
       <c r="P2" t="n">
-        <v>46.95975813580892</v>
+        <v>46.9597581358089</v>
       </c>
     </row>
     <row r="3">
@@ -26799,16 +26799,16 @@
         <v>831.6325126216005</v>
       </c>
       <c r="F4" t="n">
-        <v>831.6325126216005</v>
+        <v>831.6325126216004</v>
       </c>
       <c r="G4" t="n">
-        <v>831.6325126216005</v>
+        <v>831.6325126216004</v>
       </c>
       <c r="H4" t="n">
-        <v>831.6325126216005</v>
+        <v>831.6325126216004</v>
       </c>
       <c r="I4" t="n">
-        <v>1014.384422113383</v>
+        <v>1014.384422113382</v>
       </c>
       <c r="J4" t="n">
         <v>1029.594643517214</v>
@@ -26820,10 +26820,10 @@
         <v>1014.384422113383</v>
       </c>
       <c r="M4" t="n">
-        <v>1014.384422113383</v>
+        <v>1014.384422113382</v>
       </c>
       <c r="N4" t="n">
-        <v>1014.384422113383</v>
+        <v>1014.384422113382</v>
       </c>
       <c r="O4" t="n">
         <v>1014.384422113383</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>44.84695791156266</v>
+        <v>44.8469579115626</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.112800224246264</v>
+        <v>2.11280022424635</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>40.63068453842053</v>
+        <v>40.63068453842049</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.329073597388366</v>
+        <v>6.329073597388408</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>40.63068453842054</v>
+        <v>40.63068453842045</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>182.751909491782</v>
       </c>
       <c r="J4" t="n">
-        <v>15.2102214038315</v>
+        <v>15.21022140383161</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>816.4222912177693</v>
+        <v>816.4222912177687</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>44.84695791156266</v>
+        <v>44.8469579115626</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.112800224246264</v>
+        <v>2.11280022424635</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>40.63068453842053</v>
+        <v>40.63068453842049</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>367.5236202596492</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,22 +27859,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>375.4092528014785</v>
       </c>
       <c r="F8" t="n">
-        <v>391.6658243378801</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.317100087047</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I8" t="n">
         <v>206.909162189371</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>4.097100052852174</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27907,7 +27907,7 @@
         <v>222.6908602868995</v>
       </c>
       <c r="U8" t="n">
-        <v>242.0381886592897</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>371.0277172522222</v>
       </c>
     </row>
     <row r="9">
@@ -27932,16 +27932,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>159.3113359758211</v>
       </c>
       <c r="D9" t="n">
-        <v>132.2348441608074</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>129.8589909895525</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.2940166796957</v>
@@ -27980,19 +27980,19 @@
         <v>97.08446202703757</v>
       </c>
       <c r="S9" t="n">
-        <v>170.7637213332854</v>
+        <v>155.5534999294541</v>
       </c>
       <c r="T9" t="n">
-        <v>199.9652070090748</v>
+        <v>184.7549856052434</v>
       </c>
       <c r="U9" t="n">
         <v>225.9381254702172</v>
       </c>
       <c r="V9" t="n">
-        <v>219.4034241369306</v>
+        <v>217.5903657455939</v>
       </c>
       <c r="W9" t="n">
-        <v>236.4847617570882</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>133.405251614381</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28032,7 +28032,7 @@
         <v>154.2024705022108</v>
       </c>
       <c r="J10" t="n">
-        <v>75.21494105456009</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="K10" t="n">
         <v>17.44799951871617</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>67.47680106215783</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="R10" t="n">
         <v>160.217199632865</v>
       </c>
       <c r="S10" t="n">
-        <v>209.8962111784026</v>
+        <v>223.2933741908973</v>
       </c>
       <c r="T10" t="n">
-        <v>227.7682732010226</v>
+        <v>214.371110188528</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3167657450791</v>
+        <v>271.1065443412477</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>44.84695791156266</v>
+        <v>44.8469579115626</v>
       </c>
       <c r="C11" t="n">
-        <v>44.84695791156266</v>
+        <v>44.8469579115626</v>
       </c>
       <c r="D11" t="n">
-        <v>44.84695791156266</v>
+        <v>44.8469579115626</v>
       </c>
       <c r="E11" t="n">
-        <v>44.84695791156266</v>
+        <v>44.8469579115626</v>
       </c>
       <c r="F11" t="n">
-        <v>44.84695791156266</v>
+        <v>44.8469579115626</v>
       </c>
       <c r="G11" t="n">
-        <v>44.84695791156266</v>
+        <v>44.8469579115626</v>
       </c>
       <c r="H11" t="n">
-        <v>44.84695791156266</v>
+        <v>44.8469579115626</v>
       </c>
       <c r="I11" t="n">
         <v>41.54770747653546</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>44.84695791156266</v>
+        <v>44.8469579115626</v>
       </c>
       <c r="T11" t="n">
-        <v>44.84695791156266</v>
+        <v>44.8469579115626</v>
       </c>
       <c r="U11" t="n">
-        <v>44.84695791156266</v>
+        <v>44.8469579115626</v>
       </c>
       <c r="V11" t="n">
-        <v>44.84695791156266</v>
+        <v>44.8469579115626</v>
       </c>
       <c r="W11" t="n">
-        <v>44.84695791156266</v>
+        <v>44.8469579115626</v>
       </c>
       <c r="X11" t="n">
-        <v>44.84695791156266</v>
+        <v>44.8469579115626</v>
       </c>
       <c r="Y11" t="n">
-        <v>44.84695791156266</v>
+        <v>44.8469579115626</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>44.84695791156266</v>
+        <v>44.8469579115626</v>
       </c>
       <c r="C13" t="n">
-        <v>44.84695791156266</v>
+        <v>44.8469579115626</v>
       </c>
       <c r="D13" t="n">
-        <v>44.84695791156266</v>
+        <v>44.8469579115626</v>
       </c>
       <c r="E13" t="n">
-        <v>44.84695791156266</v>
+        <v>44.8469579115626</v>
       </c>
       <c r="F13" t="n">
-        <v>44.84695791156266</v>
+        <v>44.8469579115626</v>
       </c>
       <c r="G13" t="n">
-        <v>44.84695791156266</v>
+        <v>44.8469579115626</v>
       </c>
       <c r="H13" t="n">
-        <v>44.84695791156266</v>
+        <v>44.8469579115626</v>
       </c>
       <c r="I13" t="n">
-        <v>44.84695791156266</v>
+        <v>44.8469579115626</v>
       </c>
       <c r="J13" t="n">
-        <v>44.84695791156266</v>
+        <v>44.8469579115626</v>
       </c>
       <c r="K13" t="n">
-        <v>44.84695791156266</v>
+        <v>44.8469579115626</v>
       </c>
       <c r="L13" t="n">
-        <v>44.84695791156266</v>
+        <v>44.8469579115626</v>
       </c>
       <c r="M13" t="n">
-        <v>44.84695791156266</v>
+        <v>44.8469579115626</v>
       </c>
       <c r="N13" t="n">
-        <v>44.84695791156266</v>
+        <v>44.8469579115626</v>
       </c>
       <c r="O13" t="n">
-        <v>44.84695791156266</v>
+        <v>44.8469579115626</v>
       </c>
       <c r="P13" t="n">
-        <v>44.84695791156266</v>
+        <v>44.8469579115626</v>
       </c>
       <c r="Q13" t="n">
-        <v>44.84695791156266</v>
+        <v>44.8469579115626</v>
       </c>
       <c r="R13" t="n">
-        <v>44.84695791156266</v>
+        <v>44.8469579115626</v>
       </c>
       <c r="S13" t="n">
-        <v>44.84695791156266</v>
+        <v>44.8469579115626</v>
       </c>
       <c r="T13" t="n">
-        <v>44.84695791156266</v>
+        <v>44.8469579115626</v>
       </c>
       <c r="U13" t="n">
-        <v>44.84695791156266</v>
+        <v>44.8469579115626</v>
       </c>
       <c r="V13" t="n">
-        <v>44.84695791156266</v>
+        <v>44.8469579115626</v>
       </c>
       <c r="W13" t="n">
-        <v>44.84695791156266</v>
+        <v>44.8469579115626</v>
       </c>
       <c r="X13" t="n">
-        <v>44.84695791156266</v>
+        <v>44.8469579115626</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.84695791156266</v>
+        <v>44.8469579115626</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>44.84695791156266</v>
+        <v>44.8469579115626</v>
       </c>
       <c r="C14" t="n">
-        <v>44.84695791156266</v>
+        <v>44.8469579115626</v>
       </c>
       <c r="D14" t="n">
-        <v>44.84695791156266</v>
+        <v>44.8469579115626</v>
       </c>
       <c r="E14" t="n">
-        <v>44.84695791156266</v>
+        <v>44.8469579115626</v>
       </c>
       <c r="F14" t="n">
-        <v>44.84695791156266</v>
+        <v>44.8469579115626</v>
       </c>
       <c r="G14" t="n">
-        <v>44.84695791156266</v>
+        <v>44.8469579115626</v>
       </c>
       <c r="H14" t="n">
-        <v>44.84695791156266</v>
+        <v>44.8469579115626</v>
       </c>
       <c r="I14" t="n">
         <v>41.54770747653546</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>44.84695791156266</v>
+        <v>44.8469579115626</v>
       </c>
       <c r="T14" t="n">
-        <v>44.84695791156266</v>
+        <v>44.8469579115626</v>
       </c>
       <c r="U14" t="n">
-        <v>44.84695791156266</v>
+        <v>44.8469579115626</v>
       </c>
       <c r="V14" t="n">
-        <v>44.84695791156266</v>
+        <v>44.8469579115626</v>
       </c>
       <c r="W14" t="n">
-        <v>44.84695791156266</v>
+        <v>44.8469579115626</v>
       </c>
       <c r="X14" t="n">
-        <v>44.84695791156266</v>
+        <v>44.8469579115626</v>
       </c>
       <c r="Y14" t="n">
-        <v>44.84695791156266</v>
+        <v>44.8469579115626</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>44.84695791156266</v>
+        <v>44.8469579115626</v>
       </c>
       <c r="C16" t="n">
-        <v>44.84695791156266</v>
+        <v>44.8469579115626</v>
       </c>
       <c r="D16" t="n">
-        <v>44.84695791156266</v>
+        <v>44.8469579115626</v>
       </c>
       <c r="E16" t="n">
-        <v>44.84695791156266</v>
+        <v>44.8469579115626</v>
       </c>
       <c r="F16" t="n">
-        <v>44.84695791156266</v>
+        <v>44.8469579115626</v>
       </c>
       <c r="G16" t="n">
-        <v>44.84695791156266</v>
+        <v>44.8469579115626</v>
       </c>
       <c r="H16" t="n">
-        <v>44.84695791156266</v>
+        <v>44.8469579115626</v>
       </c>
       <c r="I16" t="n">
-        <v>44.84695791156266</v>
+        <v>44.8469579115626</v>
       </c>
       <c r="J16" t="n">
-        <v>44.84695791156266</v>
+        <v>44.8469579115626</v>
       </c>
       <c r="K16" t="n">
-        <v>44.84695791156266</v>
+        <v>44.8469579115626</v>
       </c>
       <c r="L16" t="n">
-        <v>44.84695791156266</v>
+        <v>44.8469579115626</v>
       </c>
       <c r="M16" t="n">
-        <v>44.84695791156266</v>
+        <v>44.8469579115626</v>
       </c>
       <c r="N16" t="n">
-        <v>44.84695791156266</v>
+        <v>44.8469579115626</v>
       </c>
       <c r="O16" t="n">
-        <v>44.84695791156266</v>
+        <v>44.8469579115626</v>
       </c>
       <c r="P16" t="n">
-        <v>44.84695791156266</v>
+        <v>44.8469579115626</v>
       </c>
       <c r="Q16" t="n">
-        <v>44.84695791156266</v>
+        <v>44.8469579115626</v>
       </c>
       <c r="R16" t="n">
-        <v>44.84695791156266</v>
+        <v>44.8469579115626</v>
       </c>
       <c r="S16" t="n">
-        <v>44.84695791156266</v>
+        <v>44.8469579115626</v>
       </c>
       <c r="T16" t="n">
-        <v>44.84695791156266</v>
+        <v>44.8469579115626</v>
       </c>
       <c r="U16" t="n">
-        <v>44.84695791156266</v>
+        <v>44.8469579115626</v>
       </c>
       <c r="V16" t="n">
-        <v>44.84695791156266</v>
+        <v>44.8469579115626</v>
       </c>
       <c r="W16" t="n">
-        <v>44.84695791156266</v>
+        <v>44.8469579115626</v>
       </c>
       <c r="X16" t="n">
-        <v>44.84695791156266</v>
+        <v>44.8469579115626</v>
       </c>
       <c r="Y16" t="n">
-        <v>44.84695791156266</v>
+        <v>44.8469579115626</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="C17" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="D17" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="E17" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="F17" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="G17" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="H17" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="I17" t="n">
-        <v>41.54770747653546</v>
+        <v>41.54770747653549</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="T17" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="U17" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="V17" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="W17" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="X17" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="Y17" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="C19" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="D19" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="E19" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="F19" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="G19" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="H19" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="I19" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="J19" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="K19" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="L19" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="M19" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="N19" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="O19" t="n">
-        <v>46.95975813580867</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="P19" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="R19" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="S19" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="T19" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="U19" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="V19" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="W19" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="X19" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="C20" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="D20" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="E20" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="F20" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="G20" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="H20" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="I20" t="n">
         <v>41.54770747653546</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="T20" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="U20" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="V20" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="W20" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="X20" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="Y20" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="C22" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="D22" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="E22" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="F22" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="G22" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="H22" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="I22" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="J22" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="K22" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="L22" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="M22" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="N22" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="O22" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580799</v>
       </c>
       <c r="P22" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="Q22" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="R22" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="S22" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="T22" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="U22" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="V22" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="W22" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="X22" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="Y22" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="C23" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="D23" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="E23" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="F23" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="G23" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="H23" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="I23" t="n">
         <v>41.54770747653546</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="T23" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="U23" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="V23" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="W23" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="X23" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="Y23" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="C25" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="D25" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="E25" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="F25" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="G25" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="H25" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="I25" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="J25" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="K25" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="L25" t="n">
-        <v>46.95975813580893</v>
+        <v>46.9597581358077</v>
       </c>
       <c r="M25" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="N25" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="O25" t="n">
-        <v>46.95975813580867</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="P25" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="R25" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="S25" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="T25" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="U25" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="V25" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="W25" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="X25" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
       <c r="Y25" t="n">
-        <v>46.95975813580893</v>
+        <v>46.95975813580895</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>42.7434847626668</v>
+        <v>42.74348476266684</v>
       </c>
       <c r="C26" t="n">
-        <v>42.7434847626668</v>
+        <v>42.74348476266684</v>
       </c>
       <c r="D26" t="n">
-        <v>42.7434847626668</v>
+        <v>42.74348476266684</v>
       </c>
       <c r="E26" t="n">
-        <v>42.7434847626668</v>
+        <v>42.74348476266684</v>
       </c>
       <c r="F26" t="n">
-        <v>42.7434847626668</v>
+        <v>42.74348476266684</v>
       </c>
       <c r="G26" t="n">
-        <v>42.7434847626668</v>
+        <v>42.74348476266684</v>
       </c>
       <c r="H26" t="n">
-        <v>42.7434847626668</v>
+        <v>42.74348476266684</v>
       </c>
       <c r="I26" t="n">
         <v>41.54770747653546</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>42.7434847626668</v>
+        <v>42.74348476266684</v>
       </c>
       <c r="T26" t="n">
-        <v>42.7434847626668</v>
+        <v>42.74348476266684</v>
       </c>
       <c r="U26" t="n">
-        <v>42.7434847626668</v>
+        <v>42.74348476266684</v>
       </c>
       <c r="V26" t="n">
-        <v>42.7434847626668</v>
+        <v>42.74348476266684</v>
       </c>
       <c r="W26" t="n">
-        <v>42.7434847626668</v>
+        <v>42.74348476266684</v>
       </c>
       <c r="X26" t="n">
-        <v>42.7434847626668</v>
+        <v>42.74348476266684</v>
       </c>
       <c r="Y26" t="n">
-        <v>42.7434847626668</v>
+        <v>42.74348476266684</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>42.7434847626668</v>
+        <v>42.74348476266684</v>
       </c>
       <c r="C28" t="n">
-        <v>42.7434847626668</v>
+        <v>42.74348476266684</v>
       </c>
       <c r="D28" t="n">
-        <v>42.7434847626668</v>
+        <v>42.74348476266684</v>
       </c>
       <c r="E28" t="n">
-        <v>42.7434847626668</v>
+        <v>42.74348476266684</v>
       </c>
       <c r="F28" t="n">
-        <v>42.7434847626668</v>
+        <v>42.74348476266684</v>
       </c>
       <c r="G28" t="n">
-        <v>42.7434847626668</v>
+        <v>42.74348476266684</v>
       </c>
       <c r="H28" t="n">
-        <v>42.7434847626668</v>
+        <v>42.74348476266684</v>
       </c>
       <c r="I28" t="n">
-        <v>42.7434847626668</v>
+        <v>42.74348476266684</v>
       </c>
       <c r="J28" t="n">
-        <v>42.7434847626668</v>
+        <v>42.74348476266684</v>
       </c>
       <c r="K28" t="n">
-        <v>42.7434847626668</v>
+        <v>42.74348476266684</v>
       </c>
       <c r="L28" t="n">
-        <v>42.7434847626668</v>
+        <v>42.74348476266684</v>
       </c>
       <c r="M28" t="n">
-        <v>42.7434847626668</v>
+        <v>42.74348476266684</v>
       </c>
       <c r="N28" t="n">
-        <v>42.7434847626668</v>
+        <v>42.74348476266684</v>
       </c>
       <c r="O28" t="n">
-        <v>42.7434847626668</v>
+        <v>42.74348476266684</v>
       </c>
       <c r="P28" t="n">
-        <v>42.7434847626668</v>
+        <v>42.74348476266684</v>
       </c>
       <c r="Q28" t="n">
-        <v>42.7434847626668</v>
+        <v>42.74348476266684</v>
       </c>
       <c r="R28" t="n">
-        <v>42.7434847626668</v>
+        <v>42.74348476266684</v>
       </c>
       <c r="S28" t="n">
-        <v>42.7434847626668</v>
+        <v>42.74348476266684</v>
       </c>
       <c r="T28" t="n">
-        <v>42.7434847626668</v>
+        <v>42.74348476266684</v>
       </c>
       <c r="U28" t="n">
-        <v>42.7434847626668</v>
+        <v>42.74348476266684</v>
       </c>
       <c r="V28" t="n">
-        <v>42.7434847626668</v>
+        <v>42.74348476266684</v>
       </c>
       <c r="W28" t="n">
-        <v>42.7434847626668</v>
+        <v>42.74348476266684</v>
       </c>
       <c r="X28" t="n">
-        <v>42.7434847626668</v>
+        <v>42.74348476266684</v>
       </c>
       <c r="Y28" t="n">
-        <v>42.7434847626668</v>
+        <v>42.74348476266684</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>42.7434847626668</v>
+        <v>42.74348476266684</v>
       </c>
       <c r="C29" t="n">
-        <v>42.7434847626668</v>
+        <v>42.74348476266684</v>
       </c>
       <c r="D29" t="n">
-        <v>42.7434847626668</v>
+        <v>42.74348476266684</v>
       </c>
       <c r="E29" t="n">
-        <v>42.7434847626668</v>
+        <v>42.74348476266684</v>
       </c>
       <c r="F29" t="n">
-        <v>42.7434847626668</v>
+        <v>42.74348476266684</v>
       </c>
       <c r="G29" t="n">
-        <v>42.7434847626668</v>
+        <v>42.74348476266684</v>
       </c>
       <c r="H29" t="n">
-        <v>42.7434847626668</v>
+        <v>42.74348476266684</v>
       </c>
       <c r="I29" t="n">
         <v>41.54770747653546</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>42.7434847626668</v>
+        <v>42.74348476266684</v>
       </c>
       <c r="T29" t="n">
-        <v>42.7434847626668</v>
+        <v>42.74348476266684</v>
       </c>
       <c r="U29" t="n">
-        <v>42.7434847626668</v>
+        <v>42.74348476266684</v>
       </c>
       <c r="V29" t="n">
-        <v>42.7434847626668</v>
+        <v>42.74348476266684</v>
       </c>
       <c r="W29" t="n">
-        <v>42.7434847626668</v>
+        <v>42.74348476266684</v>
       </c>
       <c r="X29" t="n">
-        <v>42.7434847626668</v>
+        <v>42.74348476266684</v>
       </c>
       <c r="Y29" t="n">
-        <v>42.7434847626668</v>
+        <v>42.74348476266684</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>42.7434847626668</v>
+        <v>42.74348476266684</v>
       </c>
       <c r="C31" t="n">
-        <v>42.7434847626668</v>
+        <v>42.74348476266684</v>
       </c>
       <c r="D31" t="n">
-        <v>42.7434847626668</v>
+        <v>42.74348476266684</v>
       </c>
       <c r="E31" t="n">
-        <v>42.7434847626668</v>
+        <v>42.74348476266684</v>
       </c>
       <c r="F31" t="n">
-        <v>42.7434847626668</v>
+        <v>42.74348476266684</v>
       </c>
       <c r="G31" t="n">
-        <v>42.7434847626668</v>
+        <v>42.74348476266684</v>
       </c>
       <c r="H31" t="n">
-        <v>42.7434847626668</v>
+        <v>42.74348476266684</v>
       </c>
       <c r="I31" t="n">
-        <v>42.7434847626668</v>
+        <v>42.74348476266684</v>
       </c>
       <c r="J31" t="n">
-        <v>42.7434847626668</v>
+        <v>42.74348476266684</v>
       </c>
       <c r="K31" t="n">
-        <v>42.7434847626668</v>
+        <v>42.74348476266684</v>
       </c>
       <c r="L31" t="n">
-        <v>42.7434847626668</v>
+        <v>42.74348476266684</v>
       </c>
       <c r="M31" t="n">
-        <v>42.7434847626668</v>
+        <v>42.74348476266684</v>
       </c>
       <c r="N31" t="n">
-        <v>42.7434847626668</v>
+        <v>42.74348476266684</v>
       </c>
       <c r="O31" t="n">
-        <v>42.7434847626668</v>
+        <v>42.74348476266684</v>
       </c>
       <c r="P31" t="n">
-        <v>42.7434847626668</v>
+        <v>42.74348476266684</v>
       </c>
       <c r="Q31" t="n">
-        <v>42.7434847626668</v>
+        <v>42.74348476266684</v>
       </c>
       <c r="R31" t="n">
-        <v>42.7434847626668</v>
+        <v>42.74348476266684</v>
       </c>
       <c r="S31" t="n">
-        <v>42.7434847626668</v>
+        <v>42.74348476266684</v>
       </c>
       <c r="T31" t="n">
-        <v>42.7434847626668</v>
+        <v>42.74348476266684</v>
       </c>
       <c r="U31" t="n">
-        <v>42.7434847626668</v>
+        <v>42.74348476266684</v>
       </c>
       <c r="V31" t="n">
-        <v>42.7434847626668</v>
+        <v>42.74348476266684</v>
       </c>
       <c r="W31" t="n">
-        <v>42.7434847626668</v>
+        <v>42.74348476266684</v>
       </c>
       <c r="X31" t="n">
-        <v>42.7434847626668</v>
+        <v>42.74348476266684</v>
       </c>
       <c r="Y31" t="n">
-        <v>42.7434847626668</v>
+        <v>42.74348476266684</v>
       </c>
     </row>
     <row r="32">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.9597581358089</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="C35" t="n">
-        <v>46.9597581358089</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="D35" t="n">
-        <v>46.9597581358089</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="E35" t="n">
-        <v>46.9597581358089</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="F35" t="n">
-        <v>46.9597581358089</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="G35" t="n">
-        <v>46.9597581358089</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="H35" t="n">
-        <v>46.9597581358089</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="I35" t="n">
         <v>41.54770747653546</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.9597581358089</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="T35" t="n">
-        <v>46.9597581358089</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="U35" t="n">
-        <v>46.9597581358089</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="V35" t="n">
-        <v>46.9597581358089</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="W35" t="n">
-        <v>46.9597581358089</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="X35" t="n">
-        <v>46.9597581358089</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.9597581358089</v>
+        <v>46.95975813580894</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.9597581358089</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="C37" t="n">
-        <v>46.9597581358089</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="D37" t="n">
-        <v>46.9597581358089</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="E37" t="n">
-        <v>46.9597581358089</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="F37" t="n">
-        <v>46.9597581358089</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="G37" t="n">
-        <v>46.9597581358089</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="H37" t="n">
-        <v>46.9597581358089</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="I37" t="n">
-        <v>46.9597581358089</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="J37" t="n">
-        <v>46.9597581358089</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="K37" t="n">
-        <v>46.9597581358089</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="L37" t="n">
-        <v>46.9597581358089</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="M37" t="n">
-        <v>46.9597581358089</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="N37" t="n">
-        <v>46.9597581358089</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="O37" t="n">
-        <v>46.9597581358089</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="P37" t="n">
-        <v>46.9597581358089</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.9597581358089</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="R37" t="n">
-        <v>46.9597581358089</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="S37" t="n">
-        <v>46.9597581358089</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="T37" t="n">
-        <v>46.9597581358089</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="U37" t="n">
-        <v>46.9597581358089</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="V37" t="n">
-        <v>46.9597581358089</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="W37" t="n">
-        <v>46.9597581358089</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="X37" t="n">
-        <v>46.9597581358089</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.9597581358089</v>
+        <v>46.95975813580894</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.95975813580891</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="C38" t="n">
-        <v>46.95975813580891</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="D38" t="n">
-        <v>46.95975813580891</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="E38" t="n">
-        <v>46.95975813580891</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="F38" t="n">
-        <v>46.95975813580891</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="G38" t="n">
-        <v>46.95975813580891</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="H38" t="n">
-        <v>46.95975813580891</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="I38" t="n">
         <v>41.54770747653546</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.95975813580891</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="T38" t="n">
-        <v>46.95975813580891</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="U38" t="n">
-        <v>46.95975813580891</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="V38" t="n">
-        <v>46.95975813580891</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="W38" t="n">
-        <v>46.95975813580891</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="X38" t="n">
-        <v>46.95975813580891</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.95975813580891</v>
+        <v>46.95975813580894</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.95975813580891</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="C40" t="n">
-        <v>46.95975813580891</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="D40" t="n">
-        <v>46.95975813580891</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="E40" t="n">
-        <v>46.95975813580891</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="F40" t="n">
-        <v>46.95975813580891</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="G40" t="n">
-        <v>46.95975813580891</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="H40" t="n">
-        <v>46.95975813580891</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="I40" t="n">
-        <v>46.95975813580891</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="J40" t="n">
-        <v>46.95975813580891</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="K40" t="n">
-        <v>46.95975813580891</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="L40" t="n">
-        <v>46.95975813580891</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="M40" t="n">
-        <v>46.95975813580891</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="N40" t="n">
-        <v>46.95975813580891</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="O40" t="n">
-        <v>46.95975813580891</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="P40" t="n">
-        <v>46.95975813580891</v>
+        <v>46.95975813580787</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.95975813580891</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="R40" t="n">
-        <v>46.95975813580891</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="S40" t="n">
-        <v>46.95975813580891</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="T40" t="n">
-        <v>46.95975813580891</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="U40" t="n">
-        <v>46.95975813580891</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="V40" t="n">
-        <v>46.95975813580891</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="W40" t="n">
-        <v>46.95975813580891</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="X40" t="n">
-        <v>46.95975813580891</v>
+        <v>46.95975813580894</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.95975813580891</v>
+        <v>46.95975813580894</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.95975813580892</v>
+        <v>46.9597581358089</v>
       </c>
       <c r="C41" t="n">
-        <v>46.95975813580892</v>
+        <v>46.9597581358089</v>
       </c>
       <c r="D41" t="n">
-        <v>46.95975813580892</v>
+        <v>46.9597581358089</v>
       </c>
       <c r="E41" t="n">
-        <v>46.95975813580892</v>
+        <v>46.9597581358089</v>
       </c>
       <c r="F41" t="n">
-        <v>46.95975813580892</v>
+        <v>46.9597581358089</v>
       </c>
       <c r="G41" t="n">
-        <v>46.95975813580892</v>
+        <v>46.9597581358089</v>
       </c>
       <c r="H41" t="n">
-        <v>46.95975813580892</v>
+        <v>46.9597581358089</v>
       </c>
       <c r="I41" t="n">
         <v>41.54770747653546</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.95975813580892</v>
+        <v>46.9597581358089</v>
       </c>
       <c r="T41" t="n">
-        <v>46.95975813580892</v>
+        <v>46.9597581358089</v>
       </c>
       <c r="U41" t="n">
-        <v>46.95975813580892</v>
+        <v>46.9597581358089</v>
       </c>
       <c r="V41" t="n">
-        <v>46.95975813580892</v>
+        <v>46.9597581358089</v>
       </c>
       <c r="W41" t="n">
-        <v>46.95975813580892</v>
+        <v>46.9597581358089</v>
       </c>
       <c r="X41" t="n">
-        <v>46.95975813580892</v>
+        <v>46.9597581358089</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.95975813580892</v>
+        <v>46.9597581358089</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.95975813580892</v>
+        <v>46.9597581358089</v>
       </c>
       <c r="C43" t="n">
-        <v>46.95975813580892</v>
+        <v>46.9597581358089</v>
       </c>
       <c r="D43" t="n">
-        <v>46.95975813580892</v>
+        <v>46.9597581358089</v>
       </c>
       <c r="E43" t="n">
-        <v>46.95975813580892</v>
+        <v>46.9597581358089</v>
       </c>
       <c r="F43" t="n">
-        <v>46.95975813580892</v>
+        <v>46.9597581358089</v>
       </c>
       <c r="G43" t="n">
-        <v>46.95975813580892</v>
+        <v>46.9597581358089</v>
       </c>
       <c r="H43" t="n">
-        <v>46.95975813580892</v>
+        <v>46.9597581358089</v>
       </c>
       <c r="I43" t="n">
-        <v>46.95975813580892</v>
+        <v>46.9597581358089</v>
       </c>
       <c r="J43" t="n">
-        <v>46.95975813580892</v>
+        <v>46.9597581358089</v>
       </c>
       <c r="K43" t="n">
-        <v>46.95975813580892</v>
+        <v>46.9597581358089</v>
       </c>
       <c r="L43" t="n">
-        <v>46.95975813580892</v>
+        <v>46.9597581358089</v>
       </c>
       <c r="M43" t="n">
-        <v>46.95975813580892</v>
+        <v>46.9597581358089</v>
       </c>
       <c r="N43" t="n">
-        <v>46.95975813580892</v>
+        <v>46.9597581358089</v>
       </c>
       <c r="O43" t="n">
-        <v>46.95975813580892</v>
+        <v>46.9597581358089</v>
       </c>
       <c r="P43" t="n">
-        <v>46.95975813580878</v>
+        <v>46.9597581358089</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.95975813580892</v>
+        <v>46.9597581358089</v>
       </c>
       <c r="R43" t="n">
-        <v>46.95975813580892</v>
+        <v>46.9597581358089</v>
       </c>
       <c r="S43" t="n">
-        <v>46.95975813580892</v>
+        <v>46.9597581358089</v>
       </c>
       <c r="T43" t="n">
-        <v>46.95975813580892</v>
+        <v>46.9597581358089</v>
       </c>
       <c r="U43" t="n">
-        <v>46.95975813580892</v>
+        <v>46.9597581358089</v>
       </c>
       <c r="V43" t="n">
-        <v>46.95975813580892</v>
+        <v>46.9597581358089</v>
       </c>
       <c r="W43" t="n">
-        <v>46.95975813580892</v>
+        <v>46.9597581358089</v>
       </c>
       <c r="X43" t="n">
-        <v>46.95975813580892</v>
+        <v>46.9597581358089</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.95975813580892</v>
+        <v>46.9597581358089</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.95975813580892</v>
+        <v>46.9597581358089</v>
       </c>
       <c r="C44" t="n">
-        <v>46.95975813580892</v>
+        <v>46.9597581358089</v>
       </c>
       <c r="D44" t="n">
-        <v>46.95975813580892</v>
+        <v>46.9597581358089</v>
       </c>
       <c r="E44" t="n">
-        <v>46.95975813580892</v>
+        <v>46.9597581358089</v>
       </c>
       <c r="F44" t="n">
-        <v>46.95975813580892</v>
+        <v>46.9597581358089</v>
       </c>
       <c r="G44" t="n">
-        <v>46.95975813580892</v>
+        <v>46.9597581358089</v>
       </c>
       <c r="H44" t="n">
-        <v>46.95975813580892</v>
+        <v>46.9597581358089</v>
       </c>
       <c r="I44" t="n">
         <v>41.54770747653546</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.95975813580892</v>
+        <v>46.9597581358089</v>
       </c>
       <c r="T44" t="n">
-        <v>46.95975813580892</v>
+        <v>46.9597581358089</v>
       </c>
       <c r="U44" t="n">
-        <v>46.95975813580892</v>
+        <v>46.9597581358089</v>
       </c>
       <c r="V44" t="n">
-        <v>46.95975813580892</v>
+        <v>46.9597581358089</v>
       </c>
       <c r="W44" t="n">
-        <v>46.95975813580892</v>
+        <v>46.9597581358089</v>
       </c>
       <c r="X44" t="n">
-        <v>46.95975813580892</v>
+        <v>46.9597581358089</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.95975813580892</v>
+        <v>46.9597581358089</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.95975813580892</v>
+        <v>46.9597581358089</v>
       </c>
       <c r="C46" t="n">
-        <v>46.95975813580892</v>
+        <v>46.9597581358089</v>
       </c>
       <c r="D46" t="n">
-        <v>46.95975813580892</v>
+        <v>46.9597581358089</v>
       </c>
       <c r="E46" t="n">
-        <v>46.95975813580892</v>
+        <v>46.9597581358089</v>
       </c>
       <c r="F46" t="n">
-        <v>46.95975813580892</v>
+        <v>46.9597581358089</v>
       </c>
       <c r="G46" t="n">
-        <v>46.95975813580892</v>
+        <v>46.9597581358089</v>
       </c>
       <c r="H46" t="n">
-        <v>46.95975813580892</v>
+        <v>46.9597581358089</v>
       </c>
       <c r="I46" t="n">
-        <v>46.95975813580892</v>
+        <v>46.9597581358089</v>
       </c>
       <c r="J46" t="n">
-        <v>46.95975813580892</v>
+        <v>46.9597581358089</v>
       </c>
       <c r="K46" t="n">
-        <v>46.95975813580892</v>
+        <v>46.9597581358089</v>
       </c>
       <c r="L46" t="n">
-        <v>46.95975813580892</v>
+        <v>46.9597581358089</v>
       </c>
       <c r="M46" t="n">
-        <v>46.95975813580892</v>
+        <v>46.9597581358089</v>
       </c>
       <c r="N46" t="n">
-        <v>46.95975813580892</v>
+        <v>46.9597581358089</v>
       </c>
       <c r="O46" t="n">
-        <v>46.95975813580892</v>
+        <v>46.9597581358089</v>
       </c>
       <c r="P46" t="n">
-        <v>46.95975813580892</v>
+        <v>46.9597581358089</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.95975813580892</v>
+        <v>46.9597581358089</v>
       </c>
       <c r="R46" t="n">
-        <v>46.95975813580892</v>
+        <v>46.9597581358089</v>
       </c>
       <c r="S46" t="n">
-        <v>46.95975813580892</v>
+        <v>46.9597581358089</v>
       </c>
       <c r="T46" t="n">
-        <v>46.95975813580892</v>
+        <v>46.9597581358089</v>
       </c>
       <c r="U46" t="n">
-        <v>46.95975813580892</v>
+        <v>46.9597581358089</v>
       </c>
       <c r="V46" t="n">
-        <v>46.95975813580892</v>
+        <v>46.9597581358089</v>
       </c>
       <c r="W46" t="n">
-        <v>46.95975813580892</v>
+        <v>46.9597581358089</v>
       </c>
       <c r="X46" t="n">
-        <v>46.95975813580892</v>
+        <v>46.9597581358089</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.95975813580892</v>
+        <v>46.9597581358089</v>
       </c>
     </row>
   </sheetData>
@@ -31841,7 +31841,7 @@
         <v>221.4994476186995</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5778358933039</v>
+        <v>377.8982987612075</v>
       </c>
       <c r="L12" t="n">
         <v>509.0446197652717</v>
@@ -31859,7 +31859,7 @@
         <v>447.6878023500737</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.587902796163</v>
+        <v>299.2674399282591</v>
       </c>
       <c r="R12" t="n">
         <v>145.5617743136489</v>
@@ -32078,7 +32078,7 @@
         <v>221.4994476186995</v>
       </c>
       <c r="K15" t="n">
-        <v>377.8982987612075</v>
+        <v>378.5778358933039</v>
       </c>
       <c r="L15" t="n">
         <v>509.0446197652717</v>
@@ -32090,7 +32090,7 @@
         <v>609.7532957774133</v>
       </c>
       <c r="O15" t="n">
-        <v>557.8051406606745</v>
+        <v>557.1256035285782</v>
       </c>
       <c r="P15" t="n">
         <v>447.6878023500737</v>
@@ -32224,10 +32224,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381769848748338</v>
+        <v>4.381769848748337</v>
       </c>
       <c r="H17" t="n">
-        <v>44.87480046349392</v>
+        <v>44.87480046349391</v>
       </c>
       <c r="I17" t="n">
         <v>168.9281820938704</v>
@@ -32236,22 +32236,22 @@
         <v>371.8972387002045</v>
       </c>
       <c r="K17" t="n">
-        <v>557.3775563977217</v>
+        <v>557.3775563977216</v>
       </c>
       <c r="L17" t="n">
-        <v>691.4761454063538</v>
+        <v>691.4761454063537</v>
       </c>
       <c r="M17" t="n">
-        <v>769.4004449540321</v>
+        <v>769.4004449540319</v>
       </c>
       <c r="N17" t="n">
-        <v>781.8501485367883</v>
+        <v>781.8501485367882</v>
       </c>
       <c r="O17" t="n">
-        <v>738.278924603297</v>
+        <v>738.2789246032969</v>
       </c>
       <c r="P17" t="n">
-        <v>630.1039814623223</v>
+        <v>630.1039814623222</v>
       </c>
       <c r="Q17" t="n">
         <v>473.1818487540223</v>
@@ -32260,13 +32260,13 @@
         <v>275.246350261438</v>
       </c>
       <c r="S17" t="n">
-        <v>99.84958042835284</v>
+        <v>99.84958042835282</v>
       </c>
       <c r="T17" t="n">
-        <v>19.18119751289586</v>
+        <v>19.18119751289585</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3505415878998669</v>
+        <v>0.3505415878998668</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,28 +32309,28 @@
         <v>22.64248566252153</v>
       </c>
       <c r="I18" t="n">
-        <v>80.71912463705451</v>
+        <v>80.71912463705448</v>
       </c>
       <c r="J18" t="n">
-        <v>220.8199104866031</v>
+        <v>221.4994476186994</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5778358933039</v>
+        <v>378.5778358933038</v>
       </c>
       <c r="L18" t="n">
-        <v>509.0446197652717</v>
+        <v>509.0446197652716</v>
       </c>
       <c r="M18" t="n">
-        <v>594.0310611825015</v>
+        <v>594.0310611825014</v>
       </c>
       <c r="N18" t="n">
-        <v>609.7532957774133</v>
+        <v>609.7532957774132</v>
       </c>
       <c r="O18" t="n">
-        <v>557.8051406606745</v>
+        <v>557.1256035285786</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6878023500737</v>
+        <v>447.6878023500736</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2674399282591</v>
@@ -32342,7 +32342,7 @@
         <v>43.54719653986312</v>
       </c>
       <c r="T18" t="n">
-        <v>9.449793062605483</v>
+        <v>9.449793062605481</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542403655485118</v>
@@ -32385,10 +32385,10 @@
         <v>1.96551110633404</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47518056358812</v>
+        <v>17.47518056358811</v>
       </c>
       <c r="I19" t="n">
-        <v>59.10827945230007</v>
+        <v>59.10827945230005</v>
       </c>
       <c r="J19" t="n">
         <v>138.9616352178166</v>
@@ -32397,16 +32397,16 @@
         <v>228.3566539904457</v>
       </c>
       <c r="L19" t="n">
-        <v>292.2178966635173</v>
+        <v>292.2178966635172</v>
       </c>
       <c r="M19" t="n">
-        <v>308.1028000592532</v>
+        <v>308.1028000592531</v>
       </c>
       <c r="N19" t="n">
         <v>300.7768041174629</v>
       </c>
       <c r="O19" t="n">
-        <v>277.8160607389243</v>
+        <v>277.8160607389242</v>
       </c>
       <c r="P19" t="n">
         <v>237.7196341697096</v>
@@ -32415,13 +32415,13 @@
         <v>164.5847527312986</v>
       </c>
       <c r="R19" t="n">
-        <v>88.37652665389237</v>
+        <v>88.37652665389236</v>
       </c>
       <c r="S19" t="n">
-        <v>34.25349809856685</v>
+        <v>34.25349809856684</v>
       </c>
       <c r="T19" t="n">
-        <v>8.398092908881807</v>
+        <v>8.398092908881805</v>
       </c>
       <c r="U19" t="n">
         <v>0.1072096967091296</v>
@@ -32549,7 +32549,7 @@
         <v>80.71912463705451</v>
       </c>
       <c r="J21" t="n">
-        <v>220.8199104866031</v>
+        <v>221.4994476186995</v>
       </c>
       <c r="K21" t="n">
         <v>378.5778358933039</v>
@@ -32567,7 +32567,7 @@
         <v>557.8051406606745</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6878023500737</v>
+        <v>447.0082652179773</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2674399282591</v>
@@ -32786,7 +32786,7 @@
         <v>80.71912463705451</v>
       </c>
       <c r="J24" t="n">
-        <v>220.8199104866031</v>
+        <v>221.4994476186995</v>
       </c>
       <c r="K24" t="n">
         <v>378.5778358933039</v>
@@ -32801,7 +32801,7 @@
         <v>609.7532957774133</v>
       </c>
       <c r="O24" t="n">
-        <v>557.8051406606745</v>
+        <v>557.1256035285782</v>
       </c>
       <c r="P24" t="n">
         <v>447.6878023500737</v>
@@ -33023,7 +33023,7 @@
         <v>80.71912463705451</v>
       </c>
       <c r="J27" t="n">
-        <v>220.8199104866028</v>
+        <v>221.4994476186995</v>
       </c>
       <c r="K27" t="n">
         <v>378.5778358933039</v>
@@ -33044,7 +33044,7 @@
         <v>447.6878023500737</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2674399282591</v>
+        <v>298.5879027961625</v>
       </c>
       <c r="R27" t="n">
         <v>145.5617743136489</v>
@@ -33260,10 +33260,10 @@
         <v>80.71912463705451</v>
       </c>
       <c r="J30" t="n">
-        <v>220.8199104866028</v>
+        <v>221.4994476186995</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5778358933039</v>
+        <v>377.8982987612072</v>
       </c>
       <c r="L30" t="n">
         <v>509.0446197652717</v>
@@ -33497,7 +33497,7 @@
         <v>80.71912463705451</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4994476186995</v>
+        <v>220.8199104866031</v>
       </c>
       <c r="K33" t="n">
         <v>378.5778358933039</v>
@@ -33518,7 +33518,7 @@
         <v>447.6878023500737</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.587902796163</v>
+        <v>299.2674399282591</v>
       </c>
       <c r="R33" t="n">
         <v>145.5617743136489</v>
@@ -33743,13 +33743,13 @@
         <v>509.0446197652717</v>
       </c>
       <c r="M36" t="n">
-        <v>594.0310611825015</v>
+        <v>593.3515240504053</v>
       </c>
       <c r="N36" t="n">
         <v>609.7532957774133</v>
       </c>
       <c r="O36" t="n">
-        <v>557.1256035285782</v>
+        <v>557.8051406606745</v>
       </c>
       <c r="P36" t="n">
         <v>447.6878023500737</v>
@@ -33974,7 +33974,7 @@
         <v>221.4994476186995</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5778358933039</v>
+        <v>377.8982987612075</v>
       </c>
       <c r="L39" t="n">
         <v>509.0446197652717</v>
@@ -33992,7 +33992,7 @@
         <v>447.6878023500737</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.587902796163</v>
+        <v>299.2674399282591</v>
       </c>
       <c r="R39" t="n">
         <v>145.5617743136489</v>
@@ -34208,10 +34208,10 @@
         <v>80.71912463705451</v>
       </c>
       <c r="J42" t="n">
-        <v>220.8199104866031</v>
+        <v>221.4994476186995</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5778358933039</v>
+        <v>377.8982987612075</v>
       </c>
       <c r="L42" t="n">
         <v>509.0446197652717</v>
@@ -34454,7 +34454,7 @@
         <v>509.0446197652717</v>
       </c>
       <c r="M45" t="n">
-        <v>594.0310611825015</v>
+        <v>593.351524050405</v>
       </c>
       <c r="N45" t="n">
         <v>609.7532957774133</v>
@@ -34466,7 +34466,7 @@
         <v>447.6878023500737</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.587902796163</v>
+        <v>299.2674399282591</v>
       </c>
       <c r="R45" t="n">
         <v>145.5617743136489</v>
@@ -35173,16 +35173,16 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>14.59566700367657</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
         <v>15.21022140383137</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
       <c r="N8" t="n">
-        <v>14.59566700367657</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>15.21022140383137</v>
@@ -35252,16 +35252,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>14.59566700367657</v>
       </c>
       <c r="L9" t="n">
-        <v>14.59566700367657</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>15.21022140383137</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>15.21022140383137</v>
@@ -35334,7 +35334,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>12.2979267016512</v>
+        <v>15.21022140383137</v>
       </c>
       <c r="M10" t="n">
         <v>15.21022140383137</v>
@@ -35343,7 +35343,7 @@
         <v>15.21022140383137</v>
       </c>
       <c r="O10" t="n">
-        <v>15.21022140383137</v>
+        <v>12.2979267016512</v>
       </c>
       <c r="P10" t="n">
         <v>2.297740302025373</v>
@@ -35489,7 +35489,7 @@
         <v>94.6618209520328</v>
       </c>
       <c r="K12" t="n">
-        <v>240.7363969189449</v>
+        <v>240.0568597868485</v>
       </c>
       <c r="L12" t="n">
         <v>370.4902399853975</v>
@@ -35507,7 +35507,7 @@
         <v>313.7133949357435</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.6061287101414</v>
+        <v>159.2856658422376</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>90.44941301270654</v>
+        <v>90.44941301270649</v>
       </c>
       <c r="K13" t="n">
         <v>250.9341200761255</v>
@@ -35574,19 +35574,19 @@
         <v>364.6548798353961</v>
       </c>
       <c r="M13" t="n">
-        <v>392.5336349326565</v>
+        <v>392.5336349326564</v>
       </c>
       <c r="N13" t="n">
-        <v>389.7559344082542</v>
+        <v>389.7559344082541</v>
       </c>
       <c r="O13" t="n">
         <v>347.2481465645266</v>
       </c>
       <c r="P13" t="n">
-        <v>279.8451513461658</v>
+        <v>279.8451513461657</v>
       </c>
       <c r="Q13" t="n">
-        <v>123.2696673911669</v>
+        <v>123.2696673911668</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>190.8513341735182</v>
       </c>
       <c r="K14" t="n">
-        <v>337.2877053527412</v>
+        <v>337.2877053527417</v>
       </c>
       <c r="L14" t="n">
         <v>455.7097304363666</v>
       </c>
       <c r="M14" t="n">
-        <v>539.0542117267603</v>
+        <v>539.0542117267594</v>
       </c>
       <c r="N14" t="n">
         <v>552.4370849401973</v>
@@ -35726,7 +35726,7 @@
         <v>94.6618209520328</v>
       </c>
       <c r="K15" t="n">
-        <v>240.0568597868485</v>
+        <v>240.7363969189449</v>
       </c>
       <c r="L15" t="n">
         <v>370.4902399853975</v>
@@ -35738,7 +35738,7 @@
         <v>478.41158369408</v>
       </c>
       <c r="O15" t="n">
-        <v>415.2088962162301</v>
+        <v>414.5293590841337</v>
       </c>
       <c r="P15" t="n">
         <v>313.7133949357435</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>90.44941301270654</v>
+        <v>90.44941301270649</v>
       </c>
       <c r="K16" t="n">
         <v>250.9341200761255</v>
@@ -35814,16 +35814,16 @@
         <v>392.5336349326564</v>
       </c>
       <c r="N16" t="n">
-        <v>389.7559344082542</v>
+        <v>389.7559344082541</v>
       </c>
       <c r="O16" t="n">
         <v>347.2481465645266</v>
       </c>
       <c r="P16" t="n">
-        <v>279.8451513461658</v>
+        <v>279.8451513461657</v>
       </c>
       <c r="Q16" t="n">
-        <v>123.2696673911669</v>
+        <v>123.2696673911668</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.8513341735182</v>
+        <v>190.8513341735196</v>
       </c>
       <c r="K17" t="n">
-        <v>337.2877053527412</v>
+        <v>337.2877053527411</v>
       </c>
       <c r="L17" t="n">
-        <v>455.7097304363666</v>
+        <v>455.7097304363664</v>
       </c>
       <c r="M17" t="n">
-        <v>539.0542117267594</v>
+        <v>539.0542117267591</v>
       </c>
       <c r="N17" t="n">
         <v>552.4370849401973</v>
       </c>
       <c r="O17" t="n">
-        <v>508.1807131816103</v>
+        <v>508.1807131816101</v>
       </c>
       <c r="P17" t="n">
-        <v>398.8709857070527</v>
+        <v>398.8709857070526</v>
       </c>
       <c r="Q17" t="n">
         <v>250.8761588795728</v>
       </c>
       <c r="R17" t="n">
-        <v>59.66081244730589</v>
+        <v>59.66081244730583</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>93.98228381993641</v>
+        <v>94.66182095203274</v>
       </c>
       <c r="K18" t="n">
-        <v>240.7363969189449</v>
+        <v>240.7363969189448</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4902399853975</v>
+        <v>370.4902399853974</v>
       </c>
       <c r="M18" t="n">
-        <v>451.8970272604832</v>
+        <v>451.8970272604831</v>
       </c>
       <c r="N18" t="n">
-        <v>478.41158369408</v>
+        <v>478.4115836940799</v>
       </c>
       <c r="O18" t="n">
-        <v>415.2088962162301</v>
+        <v>414.5293590841342</v>
       </c>
       <c r="P18" t="n">
-        <v>313.7133949357435</v>
+        <v>313.7133949357434</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2856658422376</v>
@@ -36045,7 +36045,7 @@
         <v>253.0469203003718</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7676800596424</v>
+        <v>366.7676800596423</v>
       </c>
       <c r="M19" t="n">
         <v>394.6464351569027</v>
@@ -36054,10 +36054,10 @@
         <v>391.8687346325004</v>
       </c>
       <c r="O19" t="n">
-        <v>349.3609467887726</v>
+        <v>349.3609467887728</v>
       </c>
       <c r="P19" t="n">
-        <v>281.9579515704121</v>
+        <v>281.957951570412</v>
       </c>
       <c r="Q19" t="n">
         <v>125.3824676154131</v>
@@ -36121,13 +36121,13 @@
         <v>190.8513341735182</v>
       </c>
       <c r="K20" t="n">
-        <v>337.2877053527412</v>
+        <v>337.2877053527417</v>
       </c>
       <c r="L20" t="n">
         <v>455.7097304363666</v>
       </c>
       <c r="M20" t="n">
-        <v>539.0542117267603</v>
+        <v>539.0542117267594</v>
       </c>
       <c r="N20" t="n">
         <v>552.4370849401973</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>93.98228381993641</v>
+        <v>94.6618209520328</v>
       </c>
       <c r="K21" t="n">
         <v>240.7363969189449</v>
@@ -36215,7 +36215,7 @@
         <v>415.2088962162301</v>
       </c>
       <c r="P21" t="n">
-        <v>313.7133949357435</v>
+        <v>313.033857803647</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2856658422376</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.5622132369528</v>
+        <v>92.56221323695283</v>
       </c>
       <c r="K22" t="n">
         <v>253.0469203003718</v>
@@ -36288,16 +36288,16 @@
         <v>394.6464351569027</v>
       </c>
       <c r="N22" t="n">
-        <v>391.8687346325004</v>
+        <v>391.8687346325005</v>
       </c>
       <c r="O22" t="n">
-        <v>349.3609467887728</v>
+        <v>349.3609467887719</v>
       </c>
       <c r="P22" t="n">
         <v>281.9579515704121</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3824676154131</v>
+        <v>125.3824676154132</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,7 +36361,7 @@
         <v>337.2877053527412</v>
       </c>
       <c r="L23" t="n">
-        <v>455.7097304363666</v>
+        <v>476.1231388650134</v>
       </c>
       <c r="M23" t="n">
         <v>539.0542117267594</v>
@@ -36376,10 +36376,10 @@
         <v>720.6696938785353</v>
       </c>
       <c r="Q23" t="n">
-        <v>417.8881380951423</v>
+        <v>463.1911495394775</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3772323202883</v>
+        <v>59.66081244730589</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>93.9822838199364</v>
+        <v>94.6618209520328</v>
       </c>
       <c r="K24" t="n">
         <v>240.7363969189449</v>
@@ -36449,7 +36449,7 @@
         <v>478.41158369408</v>
       </c>
       <c r="O24" t="n">
-        <v>415.2088962162301</v>
+        <v>414.5293590841337</v>
       </c>
       <c r="P24" t="n">
         <v>313.7133949357435</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.5622132369528</v>
+        <v>92.56221323695283</v>
       </c>
       <c r="K25" t="n">
         <v>253.0469203003718</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7676800596424</v>
+        <v>366.7676800596411</v>
       </c>
       <c r="M25" t="n">
         <v>394.6464351569027</v>
       </c>
       <c r="N25" t="n">
-        <v>391.8687346325004</v>
+        <v>391.8687346325005</v>
       </c>
       <c r="O25" t="n">
-        <v>349.3609467887726</v>
+        <v>349.3609467887729</v>
       </c>
       <c r="P25" t="n">
         <v>281.9579515704121</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3824676154131</v>
+        <v>125.3824676154132</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>190.8513341735182</v>
       </c>
       <c r="K26" t="n">
-        <v>587.0240601686335</v>
+        <v>337.2877053527412</v>
       </c>
       <c r="L26" t="n">
         <v>455.7097304363666</v>
@@ -36604,16 +36604,16 @@
         <v>539.0542117267594</v>
       </c>
       <c r="N26" t="n">
-        <v>552.4370849401973</v>
+        <v>633.6882491532482</v>
       </c>
       <c r="O26" t="n">
-        <v>508.1807131816103</v>
+        <v>888.9808944443556</v>
       </c>
       <c r="P26" t="n">
         <v>720.6696938785353</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1911495394775</v>
+        <v>250.8761588795728</v>
       </c>
       <c r="R26" t="n">
         <v>59.66081244730589</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>93.98228381993611</v>
+        <v>94.6618209520328</v>
       </c>
       <c r="K27" t="n">
         <v>240.7363969189449</v>
@@ -36692,7 +36692,7 @@
         <v>313.7133949357435</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2856658422376</v>
+        <v>158.606128710141</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>88.34593986381067</v>
+        <v>88.34593986381071</v>
       </c>
       <c r="K28" t="n">
         <v>248.8306469272297</v>
       </c>
       <c r="L28" t="n">
-        <v>362.5514066865002</v>
+        <v>362.5514066865003</v>
       </c>
       <c r="M28" t="n">
         <v>390.4301617837606</v>
@@ -36765,13 +36765,13 @@
         <v>387.6524612593583</v>
       </c>
       <c r="O28" t="n">
-        <v>345.1446734156307</v>
+        <v>345.1446734156308</v>
       </c>
       <c r="P28" t="n">
         <v>277.7416781972699</v>
       </c>
       <c r="Q28" t="n">
-        <v>121.166194242271</v>
+        <v>121.1661942422711</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,7 +36835,7 @@
         <v>661.4331179239059</v>
       </c>
       <c r="L29" t="n">
-        <v>455.7097304363666</v>
+        <v>873.370944986817</v>
       </c>
       <c r="M29" t="n">
         <v>539.0542117267594</v>
@@ -36847,10 +36847,10 @@
         <v>508.1807131816103</v>
       </c>
       <c r="P29" t="n">
-        <v>720.6696938785353</v>
+        <v>440.9144122327165</v>
       </c>
       <c r="Q29" t="n">
-        <v>388.7820917842047</v>
+        <v>250.8761588795728</v>
       </c>
       <c r="R29" t="n">
         <v>59.66081244730589</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>93.98228381993611</v>
+        <v>94.6618209520328</v>
       </c>
       <c r="K30" t="n">
-        <v>240.7363969189449</v>
+        <v>240.0568597868482</v>
       </c>
       <c r="L30" t="n">
         <v>370.4902399853975</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>88.34593986381067</v>
+        <v>88.34593986381071</v>
       </c>
       <c r="K31" t="n">
         <v>248.8306469272297</v>
       </c>
       <c r="L31" t="n">
-        <v>362.5514066865002</v>
+        <v>362.5514066865003</v>
       </c>
       <c r="M31" t="n">
         <v>390.4301617837606</v>
@@ -37002,13 +37002,13 @@
         <v>387.6524612593583</v>
       </c>
       <c r="O31" t="n">
-        <v>345.1446734156307</v>
+        <v>345.1446734156308</v>
       </c>
       <c r="P31" t="n">
         <v>277.7416781972699</v>
       </c>
       <c r="Q31" t="n">
-        <v>121.166194242271</v>
+        <v>121.1661942422711</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37078,7 +37078,7 @@
         <v>988.5677452195919</v>
       </c>
       <c r="N32" t="n">
-        <v>826.5472738794734</v>
+        <v>826.547273879473</v>
       </c>
       <c r="O32" t="n">
         <v>508.1807131816103</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6618209520328</v>
+        <v>93.98228381993638</v>
       </c>
       <c r="K33" t="n">
         <v>240.7363969189449</v>
@@ -37166,7 +37166,7 @@
         <v>313.7133949357435</v>
       </c>
       <c r="Q33" t="n">
-        <v>158.6061287101414</v>
+        <v>159.2856658422376</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.947949345592</v>
+        <v>190.8513341735182</v>
       </c>
       <c r="K35" t="n">
         <v>337.2877053527412</v>
@@ -37318,16 +37318,16 @@
         <v>552.4370849401973</v>
       </c>
       <c r="O35" t="n">
-        <v>508.1807131816103</v>
+        <v>888.9808944443556</v>
       </c>
       <c r="P35" t="n">
         <v>720.6696938785353</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1911495394775</v>
+        <v>271.9009918774517</v>
       </c>
       <c r="R35" t="n">
-        <v>80.07422087595447</v>
+        <v>59.66081244730589</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,13 +37391,13 @@
         <v>370.4902399853975</v>
       </c>
       <c r="M36" t="n">
-        <v>451.8970272604832</v>
+        <v>451.2174901283869</v>
       </c>
       <c r="N36" t="n">
         <v>478.41158369408</v>
       </c>
       <c r="O36" t="n">
-        <v>414.5293590841337</v>
+        <v>415.2088962162301</v>
       </c>
       <c r="P36" t="n">
         <v>313.7133949357435</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.56221323695277</v>
+        <v>92.56221323695281</v>
       </c>
       <c r="K37" t="n">
         <v>253.0469203003718</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7676800596423</v>
+        <v>366.7676800596424</v>
       </c>
       <c r="M37" t="n">
         <v>394.6464351569027</v>
@@ -37476,13 +37476,13 @@
         <v>391.8687346325004</v>
       </c>
       <c r="O37" t="n">
-        <v>349.3609467887728</v>
+        <v>349.3609467887729</v>
       </c>
       <c r="P37" t="n">
-        <v>281.957951570412</v>
+        <v>281.9579515704121</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3824676154131</v>
+        <v>125.3824676154132</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,10 +37543,10 @@
         <v>190.8513341735182</v>
       </c>
       <c r="K38" t="n">
-        <v>337.2877053527412</v>
+        <v>661.4331179239059</v>
       </c>
       <c r="L38" t="n">
-        <v>455.7097304363666</v>
+        <v>474.3878590345629</v>
       </c>
       <c r="M38" t="n">
         <v>539.0542117267594</v>
@@ -37555,16 +37555,16 @@
         <v>552.4370849401973</v>
       </c>
       <c r="O38" t="n">
-        <v>631.9743169093497</v>
+        <v>888.9808944443556</v>
       </c>
       <c r="P38" t="n">
-        <v>720.6696938785353</v>
+        <v>398.8709857070527</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1911495394775</v>
+        <v>250.8761588795728</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3772323202883</v>
+        <v>59.66081244730589</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>94.6618209520328</v>
       </c>
       <c r="K39" t="n">
-        <v>240.7363969189449</v>
+        <v>240.0568597868485</v>
       </c>
       <c r="L39" t="n">
         <v>370.4902399853975</v>
@@ -37640,7 +37640,7 @@
         <v>313.7133949357435</v>
       </c>
       <c r="Q39" t="n">
-        <v>158.6061287101414</v>
+        <v>159.2856658422376</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.56221323695279</v>
+        <v>92.56221323695281</v>
       </c>
       <c r="K40" t="n">
         <v>253.0469203003718</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7676800596423</v>
+        <v>366.7676800596424</v>
       </c>
       <c r="M40" t="n">
         <v>394.6464351569027</v>
@@ -37713,13 +37713,13 @@
         <v>391.8687346325004</v>
       </c>
       <c r="O40" t="n">
-        <v>349.3609467887728</v>
+        <v>349.3609467887729</v>
       </c>
       <c r="P40" t="n">
-        <v>281.957951570412</v>
+        <v>281.957951570411</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3824676154131</v>
+        <v>125.3824676154132</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>314.6449379012569</v>
+        <v>190.8513341735182</v>
       </c>
       <c r="K41" t="n">
         <v>337.2877053527412</v>
@@ -37786,7 +37786,7 @@
         <v>455.7097304363666</v>
       </c>
       <c r="M41" t="n">
-        <v>539.0542117267594</v>
+        <v>662.8478154544988</v>
       </c>
       <c r="N41" t="n">
         <v>552.4370849401973</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>93.9822838199364</v>
+        <v>94.6618209520328</v>
       </c>
       <c r="K42" t="n">
-        <v>240.7363969189449</v>
+        <v>240.0568597868485</v>
       </c>
       <c r="L42" t="n">
         <v>370.4902399853975</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.5622132369528</v>
+        <v>92.56221323695277</v>
       </c>
       <c r="K43" t="n">
         <v>253.0469203003718</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7676800596424</v>
+        <v>366.7676800596423</v>
       </c>
       <c r="M43" t="n">
         <v>394.6464351569027</v>
@@ -37953,7 +37953,7 @@
         <v>349.3609467887728</v>
       </c>
       <c r="P43" t="n">
-        <v>281.9579515704119</v>
+        <v>281.957951570412</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3824676154131</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.947949345592</v>
+        <v>190.8513341735182</v>
       </c>
       <c r="K44" t="n">
         <v>337.2877053527412</v>
       </c>
       <c r="L44" t="n">
-        <v>455.7097304363666</v>
+        <v>741.98652845649</v>
       </c>
       <c r="M44" t="n">
         <v>539.0542117267594</v>
       </c>
       <c r="N44" t="n">
-        <v>552.4370849401973</v>
+        <v>989.7840093521816</v>
       </c>
       <c r="O44" t="n">
         <v>508.1807131816103</v>
       </c>
       <c r="P44" t="n">
-        <v>675.3666824341999</v>
+        <v>398.8709857070527</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1911495394775</v>
+        <v>250.8761588795728</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3772323202883</v>
+        <v>59.66081244730589</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,7 +38102,7 @@
         <v>370.4902399853975</v>
       </c>
       <c r="M45" t="n">
-        <v>451.8970272604832</v>
+        <v>451.2174901283868</v>
       </c>
       <c r="N45" t="n">
         <v>478.41158369408</v>
@@ -38114,7 +38114,7 @@
         <v>313.7133949357435</v>
       </c>
       <c r="Q45" t="n">
-        <v>158.6061287101414</v>
+        <v>159.2856658422376</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.5622132369528</v>
+        <v>92.56221323695277</v>
       </c>
       <c r="K46" t="n">
         <v>253.0469203003718</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7676800596424</v>
+        <v>366.7676800596423</v>
       </c>
       <c r="M46" t="n">
         <v>394.6464351569027</v>
